--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_22_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_22_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1647353.850413589</v>
+        <v>1643395.45064995</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29000193.10200922</v>
+        <v>29000193.10200921</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6374737.801857027</v>
+        <v>6374737.801857029</v>
       </c>
     </row>
     <row r="9">
@@ -1372,22 +1372,22 @@
         <v>408.8394049541102</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>415.8212469923283</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>414.9066947591165</v>
       </c>
       <c r="F11" t="n">
-        <v>191.1540512095289</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>391.5139790356962</v>
+        <v>19.83158086271062</v>
       </c>
       <c r="H11" t="n">
-        <v>267.8914923689308</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>181.4538333304405</v>
+        <v>81.92172748317221</v>
       </c>
       <c r="C13" t="n">
         <v>163.4423617953686</v>
@@ -1536,10 +1536,10 @@
         <v>154.8731294499925</v>
       </c>
       <c r="E13" t="n">
-        <v>112.5186629677487</v>
+        <v>157.7356480941704</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>163.3326807886806</v>
       </c>
       <c r="G13" t="n">
         <v>156.8997042043449</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>146.2136763060694</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>230.3174472233585</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>270.5238981323836</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>265.2934040947076</v>
       </c>
       <c r="X13" t="n">
-        <v>233.3277818941484</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>217.2688649326509</v>
+        <v>217.2688649326508</v>
       </c>
     </row>
     <row r="14">
@@ -1612,19 +1612,19 @@
         <v>415.8212469923283</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>412.2492189123452</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>126.5656066833212</v>
+        <v>379.7344248416912</v>
       </c>
       <c r="G14" t="n">
-        <v>391.5139790356962</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.8914923689308</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>51.59403682190111</v>
       </c>
       <c r="T14" t="n">
-        <v>203.2768368875957</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>248.8031872505477</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>400.7923231494257</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>394.473421650154</v>
       </c>
     </row>
     <row r="15">
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>181.4538333304405</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>163.4423617953686</v>
       </c>
       <c r="D16" t="n">
-        <v>20.69576052831548</v>
+        <v>9.370030965452536</v>
       </c>
       <c r="E16" t="n">
-        <v>157.7356480941705</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>163.3326807886807</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>156.8997042043449</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>127.6863094992969</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>65.3694966697185</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>146.2136763060694</v>
+        <v>146.2136763060693</v>
       </c>
       <c r="T16" t="n">
         <v>230.3174472233585</v>
@@ -1824,7 +1824,7 @@
         <v>270.5238981323836</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>272.0838770235468</v>
       </c>
       <c r="W16" t="n">
         <v>265.2934040947076</v>
@@ -1833,7 +1833,7 @@
         <v>233.3277818941484</v>
       </c>
       <c r="Y16" t="n">
-        <v>217.2688649326509</v>
+        <v>217.2688649326508</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>408.8394049541102</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>415.8212469923283</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>363.5551961520908</v>
       </c>
       <c r="E17" t="n">
-        <v>414.9066947591165</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>414.0624642979892</v>
       </c>
       <c r="G17" t="n">
-        <v>391.5139790356962</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>267.8914923689308</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>51.59403682190111</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>171.8166202559587</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>400.7923231494257</v>
       </c>
       <c r="Y17" t="n">
-        <v>394.473421650154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>60.92052451145229</v>
+        <v>60.9205245114523</v>
       </c>
       <c r="T18" t="n">
         <v>136.2099789577612</v>
@@ -2007,22 +2007,22 @@
         <v>163.4423617953686</v>
       </c>
       <c r="D19" t="n">
-        <v>154.8731294499925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>157.7356480941705</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>163.3326807886807</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>156.8997042043449</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>127.6863094992969</v>
+        <v>74.73952763517104</v>
       </c>
       <c r="I19" t="n">
-        <v>65.3694966697185</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>146.2136763060694</v>
+        <v>146.2136763060693</v>
       </c>
       <c r="T19" t="n">
         <v>230.3174472233585</v>
       </c>
       <c r="U19" t="n">
-        <v>24.77811597904604</v>
+        <v>270.5238981323836</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>272.0838770235468</v>
       </c>
       <c r="W19" t="n">
         <v>265.2934040947076</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>233.3277818941484</v>
       </c>
       <c r="Y19" t="n">
-        <v>217.2688649326509</v>
+        <v>217.2688649326508</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>408.8394049541102</v>
       </c>
       <c r="C20" t="n">
-        <v>415.8212469923283</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>87.1874898882359</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>407.4515067565578</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>391.5139790356962</v>
       </c>
       <c r="H20" t="n">
-        <v>267.8914923689308</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>51.59403682190111</v>
       </c>
       <c r="T20" t="n">
-        <v>203.2768368875957</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>248.8031872505477</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>385.616960508152</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>400.7923231494257</v>
       </c>
       <c r="Y20" t="n">
         <v>394.473421650154</v>
@@ -2244,22 +2244,22 @@
         <v>163.4423617953686</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.8731294499925</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>163.3326807886807</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>127.6863094992969</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>65.3694966697185</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>57.62052315256029</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>230.3174472233585</v>
+        <v>103.3417155455904</v>
       </c>
       <c r="U22" t="n">
         <v>270.5238981323836</v>
@@ -2307,7 +2307,7 @@
         <v>233.3277818941484</v>
       </c>
       <c r="Y22" t="n">
-        <v>217.2688649326509</v>
+        <v>217.2688649326508</v>
       </c>
     </row>
     <row r="23">
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>408.8394049541102</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>415.8212469923283</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>412.2492189123452</v>
       </c>
       <c r="E23" t="n">
-        <v>372.3415677146221</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>414.0624642979892</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>51.59403682190111</v>
       </c>
       <c r="T23" t="n">
         <v>203.2768368875957</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>248.8031872505477</v>
       </c>
       <c r="V23" t="n">
-        <v>347.1040450305085</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>6.136229221390231</v>
       </c>
       <c r="X23" t="n">
-        <v>400.7923231494257</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>394.473421650154</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>92.05853995754428</v>
       </c>
       <c r="H24" t="n">
-        <v>42.65620764007183</v>
+        <v>42.65620764007184</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2484,10 +2484,10 @@
         <v>154.8731294499925</v>
       </c>
       <c r="E25" t="n">
-        <v>157.7356480941705</v>
+        <v>157.7356480941704</v>
       </c>
       <c r="F25" t="n">
-        <v>163.3326807886807</v>
+        <v>163.3326807886806</v>
       </c>
       <c r="G25" t="n">
         <v>156.8997042043449</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>146.2136763060694</v>
+        <v>146.2136763060693</v>
       </c>
       <c r="T25" t="n">
-        <v>230.3174472233588</v>
+        <v>230.3174472233585</v>
       </c>
       <c r="U25" t="n">
         <v>270.5238981323842</v>
@@ -2544,7 +2544,7 @@
         <v>233.3277818941484</v>
       </c>
       <c r="Y25" t="n">
-        <v>217.2688649326509</v>
+        <v>217.2688649326508</v>
       </c>
     </row>
     <row r="26">
@@ -2557,10 +2557,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
         <v>421.717170453621</v>
@@ -2569,10 +2569,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>398.3244547302007</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>274.7019680634353</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.40451251640561</v>
+        <v>58.40451251640562</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>255.6136629450522</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>315.5906144761138</v>
+        <v>93.23734185715043</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>92.05853995754428</v>
       </c>
       <c r="H27" t="n">
-        <v>42.65620764007183</v>
+        <v>42.65620764007184</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>134.4967851938014</v>
       </c>
       <c r="I28" t="n">
-        <v>72.179972364223</v>
+        <v>72.17997236422302</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.810475694504511</v>
+        <v>6.810475694504518</v>
       </c>
       <c r="S28" t="n">
         <v>153.0241520005739</v>
@@ -2797,7 +2797,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
@@ -2806,10 +2806,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>398.3244547302007</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>274.7019680634353</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.40451251640561</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>118.1067210613749</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.6136629450522</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>228.5525769384315</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>92.05853995754428</v>
       </c>
       <c r="H30" t="n">
-        <v>42.65620764007183</v>
+        <v>42.65620764007184</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>163.7101798988494</v>
       </c>
       <c r="H31" t="n">
-        <v>134.4967851938019</v>
+        <v>134.4967851938014</v>
       </c>
       <c r="I31" t="n">
-        <v>72.179972364223</v>
+        <v>72.17997236422302</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.810475694504511</v>
+        <v>6.810475694504757</v>
       </c>
       <c r="S31" t="n">
         <v>153.0241520005739</v>
       </c>
       <c r="T31" t="n">
-        <v>237.127922917863</v>
+        <v>237.1279229178627</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3343738268882</v>
+        <v>277.3343738268885</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>387.5242560627913</v>
+        <v>145.1037346790839</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>398.3244547302007</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>274.7019680634353</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.40451251640561</v>
+        <v>58.40451251640562</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.0873125821002</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.6136629450522</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
@@ -3125,7 +3125,7 @@
         <v>92.05853995754428</v>
       </c>
       <c r="H33" t="n">
-        <v>42.65620764007183</v>
+        <v>42.65620764007184</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>134.4967851938014</v>
       </c>
       <c r="I34" t="n">
-        <v>72.179972364223</v>
+        <v>72.17997236422302</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.810475694504511</v>
+        <v>6.810475694504518</v>
       </c>
       <c r="S34" t="n">
         <v>153.0241520005739</v>
@@ -3243,7 +3243,7 @@
         <v>237.127922917863</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3343738268882</v>
+        <v>277.3343738268885</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>398.3244547302007</v>
+        <v>329.5028176795688</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>58.40451251640561</v>
       </c>
       <c r="T35" t="n">
-        <v>210.0873125821002</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6136629450522</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>10.0622279346995</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.7101798988494</v>
       </c>
       <c r="H37" t="n">
         <v>134.4967851938014</v>
       </c>
       <c r="I37" t="n">
-        <v>21.52536142548489</v>
+        <v>72.179972364223</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>153.0241520005739</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>171.1982531288303</v>
       </c>
       <c r="U37" t="n">
         <v>277.3343738268882</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.40451251640562</v>
+        <v>58.40451251640561</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>350.8506430217428</v>
+        <v>349.091860327404</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
@@ -3599,7 +3599,7 @@
         <v>92.05853995754428</v>
       </c>
       <c r="H39" t="n">
-        <v>42.65620764007184</v>
+        <v>42.65620764007183</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>70.35711354804837</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>163.7101798988494</v>
@@ -3681,7 +3681,7 @@
         <v>134.4967851938014</v>
       </c>
       <c r="I40" t="n">
-        <v>72.17997236422302</v>
+        <v>72.179972364223</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.810475694504518</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>153.0241520005739</v>
       </c>
       <c r="T40" t="n">
-        <v>237.127922917863</v>
+        <v>212.1459527634148</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3343738268882</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>87.91422364134581</v>
+        <v>311.9786321116429</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>274.7019680634353</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.40451251640562</v>
+        <v>58.40451251640561</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>92.05853995754428</v>
       </c>
       <c r="H42" t="n">
-        <v>42.65620764007184</v>
+        <v>42.65620764007183</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>163.7101798988494</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>134.4967851938014</v>
       </c>
       <c r="I43" t="n">
-        <v>69.74398492103298</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>153.0241520005739</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>196.5932721331108</v>
       </c>
     </row>
     <row r="44">
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>13.71987214494338</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>317.2016914555221</v>
       </c>
       <c r="G44" t="n">
-        <v>398.3244547302007</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>58.40451251640561</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>92.05853995754428</v>
       </c>
       <c r="H45" t="n">
-        <v>42.65620764007184</v>
+        <v>42.65620764007183</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.7101798988494</v>
@@ -4155,7 +4155,7 @@
         <v>134.4967851938014</v>
       </c>
       <c r="I46" t="n">
-        <v>72.17997236422302</v>
+        <v>72.179972364223</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>6.810475694504518</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>153.0241520005739</v>
@@ -4191,19 +4191,19 @@
         <v>237.127922917863</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3343738268882</v>
       </c>
       <c r="V46" t="n">
-        <v>129.891159295544</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>55.40195857985737</v>
       </c>
     </row>
   </sheetData>
@@ -5017,73 +5017,73 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>901.5065199023188</v>
+        <v>901.5065199023184</v>
       </c>
       <c r="C11" t="n">
-        <v>901.5065199023188</v>
+        <v>481.4850582939059</v>
       </c>
       <c r="D11" t="n">
-        <v>901.5065199023188</v>
+        <v>481.4850582939059</v>
       </c>
       <c r="E11" t="n">
-        <v>901.5065199023188</v>
+        <v>62.38738682005084</v>
       </c>
       <c r="F11" t="n">
-        <v>708.4216196906734</v>
+        <v>62.38738682005084</v>
       </c>
       <c r="G11" t="n">
-        <v>312.952953998051</v>
+        <v>42.35548695872697</v>
       </c>
       <c r="H11" t="n">
-        <v>42.35548695872698</v>
+        <v>42.35548695872697</v>
       </c>
       <c r="I11" t="n">
-        <v>83.38845554548368</v>
+        <v>83.38845554548379</v>
       </c>
       <c r="J11" t="n">
-        <v>219.8942334459613</v>
+        <v>219.8942334459614</v>
       </c>
       <c r="K11" t="n">
         <v>432.7260182612553</v>
       </c>
       <c r="L11" t="n">
-        <v>702.7592035003242</v>
+        <v>702.7592035003241</v>
       </c>
       <c r="M11" t="n">
-        <v>1008.369435488011</v>
+        <v>1008.36943548801</v>
       </c>
       <c r="N11" t="n">
-        <v>1319.67450439648</v>
+        <v>1319.674504396479</v>
       </c>
       <c r="O11" t="n">
-        <v>1611.46407344158</v>
+        <v>1611.464073441579</v>
       </c>
       <c r="P11" t="n">
-        <v>1854.893307191724</v>
+        <v>1854.893307191723</v>
       </c>
       <c r="Q11" t="n">
         <v>2029.870452556934</v>
       </c>
       <c r="R11" t="n">
-        <v>2117.774347936349</v>
+        <v>2117.774347936348</v>
       </c>
       <c r="S11" t="n">
-        <v>2117.774347936349</v>
+        <v>2117.774347936348</v>
       </c>
       <c r="T11" t="n">
-        <v>2117.774347936349</v>
+        <v>2117.774347936348</v>
       </c>
       <c r="U11" t="n">
-        <v>2117.774347936349</v>
+        <v>2117.774347936348</v>
       </c>
       <c r="V11" t="n">
-        <v>2117.774347936349</v>
+        <v>2117.774347936348</v>
       </c>
       <c r="W11" t="n">
-        <v>2117.774347936349</v>
+        <v>2117.774347936348</v>
       </c>
       <c r="X11" t="n">
-        <v>1712.933617482384</v>
+        <v>1712.933617482383</v>
       </c>
       <c r="Y11" t="n">
         <v>1314.475615815561</v>
@@ -5114,34 +5114,34 @@
         <v>85.44256538304197</v>
       </c>
       <c r="H12" t="n">
-        <v>42.35548695872698</v>
+        <v>42.35548695872697</v>
       </c>
       <c r="I12" t="n">
-        <v>62.29462781642934</v>
+        <v>62.29462781642933</v>
       </c>
       <c r="J12" t="n">
         <v>140.5386338452445</v>
       </c>
       <c r="K12" t="n">
-        <v>458.0453442062233</v>
+        <v>286.9702616882101</v>
       </c>
       <c r="L12" t="n">
-        <v>662.4681515640682</v>
+        <v>491.3930690460551</v>
       </c>
       <c r="M12" t="n">
-        <v>904.1654168277539</v>
+        <v>1009.62091711266</v>
       </c>
       <c r="N12" t="n">
-        <v>1154.60109430912</v>
+        <v>1260.056594594026</v>
       </c>
       <c r="O12" t="n">
-        <v>1380.090095903834</v>
+        <v>1485.54559618874</v>
       </c>
       <c r="P12" t="n">
-        <v>1557.923275880599</v>
+        <v>1663.378776165505</v>
       </c>
       <c r="Q12" t="n">
-        <v>1668.688177790415</v>
+        <v>1774.143678075321</v>
       </c>
       <c r="R12" t="n">
         <v>1815.536204021144</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>831.0319158339494</v>
+        <v>1041.688144031022</v>
       </c>
       <c r="C13" t="n">
-        <v>665.9386210911528</v>
+        <v>876.5948492882259</v>
       </c>
       <c r="D13" t="n">
-        <v>509.5011165962109</v>
+        <v>720.157344793284</v>
       </c>
       <c r="E13" t="n">
-        <v>395.8459014772728</v>
+        <v>560.8284073244249</v>
       </c>
       <c r="F13" t="n">
-        <v>395.8459014772728</v>
+        <v>395.8459014772727</v>
       </c>
       <c r="G13" t="n">
-        <v>237.3613517759143</v>
+        <v>237.3613517759142</v>
       </c>
       <c r="H13" t="n">
         <v>108.3852815746042</v>
       </c>
       <c r="I13" t="n">
-        <v>42.35548695872698</v>
+        <v>42.35548695872697</v>
       </c>
       <c r="J13" t="n">
-        <v>83.81431668414871</v>
+        <v>161.7360333323696</v>
       </c>
       <c r="K13" t="n">
-        <v>412.0449149261711</v>
+        <v>489.966631574392</v>
       </c>
       <c r="L13" t="n">
-        <v>896.8790573105587</v>
+        <v>598.4118803676145</v>
       </c>
       <c r="M13" t="n">
-        <v>1421.028208424805</v>
+        <v>713.2816610640061</v>
       </c>
       <c r="N13" t="n">
-        <v>1883.67427297366</v>
+        <v>1041.842246719249</v>
       </c>
       <c r="O13" t="n">
-        <v>1985.130765763256</v>
+        <v>1521.001063812049</v>
       </c>
       <c r="P13" t="n">
-        <v>2068.846752186138</v>
+        <v>1917.473254808239</v>
       </c>
       <c r="Q13" t="n">
-        <v>2117.774347936349</v>
+        <v>2117.774347936348</v>
       </c>
       <c r="R13" t="n">
-        <v>2117.774347936349</v>
+        <v>2117.774347936348</v>
       </c>
       <c r="S13" t="n">
-        <v>1970.083765809006</v>
+        <v>2117.774347936348</v>
       </c>
       <c r="T13" t="n">
-        <v>1737.439879724805</v>
+        <v>1885.130461852148</v>
       </c>
       <c r="U13" t="n">
-        <v>1737.439879724805</v>
+        <v>1611.873999092164</v>
       </c>
       <c r="V13" t="n">
-        <v>1737.439879724805</v>
+        <v>1611.873999092164</v>
       </c>
       <c r="W13" t="n">
-        <v>1469.466744275606</v>
+        <v>1343.900863642965</v>
       </c>
       <c r="X13" t="n">
-        <v>1233.782116099698</v>
+        <v>1343.900863642965</v>
       </c>
       <c r="Y13" t="n">
-        <v>1014.318616167728</v>
+        <v>1124.437363710994</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1256.287128453956</v>
+        <v>1262.36042710657</v>
       </c>
       <c r="C14" t="n">
-        <v>836.2656668455434</v>
+        <v>842.3389654981577</v>
       </c>
       <c r="D14" t="n">
-        <v>836.2656668455434</v>
+        <v>425.9256130614453</v>
       </c>
       <c r="E14" t="n">
-        <v>836.2656668455434</v>
+        <v>425.9256130614453</v>
       </c>
       <c r="F14" t="n">
-        <v>708.4216196906734</v>
+        <v>42.35548695872697</v>
       </c>
       <c r="G14" t="n">
-        <v>312.952953998051</v>
+        <v>42.35548695872697</v>
       </c>
       <c r="H14" t="n">
-        <v>42.35548695872698</v>
+        <v>42.35548695872697</v>
       </c>
       <c r="I14" t="n">
         <v>83.38845554548371</v>
       </c>
       <c r="J14" t="n">
-        <v>219.8942334459614</v>
+        <v>219.8942334459613</v>
       </c>
       <c r="K14" t="n">
-        <v>432.7260182612551</v>
+        <v>432.7260182612545</v>
       </c>
       <c r="L14" t="n">
-        <v>702.759203500324</v>
+        <v>702.7592035003233</v>
       </c>
       <c r="M14" t="n">
-        <v>1008.369435488011</v>
+        <v>1008.36943548801</v>
       </c>
       <c r="N14" t="n">
-        <v>1319.67450439648</v>
+        <v>1319.674504396479</v>
       </c>
       <c r="O14" t="n">
-        <v>1611.46407344158</v>
+        <v>1611.464073441579</v>
       </c>
       <c r="P14" t="n">
-        <v>1854.893307191724</v>
+        <v>1854.893307191723</v>
       </c>
       <c r="Q14" t="n">
         <v>2029.870452556934</v>
       </c>
       <c r="R14" t="n">
-        <v>2117.774347936349</v>
+        <v>2117.774347936348</v>
       </c>
       <c r="S14" t="n">
-        <v>2117.774347936349</v>
+        <v>2065.659159227358</v>
       </c>
       <c r="T14" t="n">
-        <v>1912.44420966605</v>
+        <v>2065.659159227358</v>
       </c>
       <c r="U14" t="n">
-        <v>1661.127858907921</v>
+        <v>2065.659159227358</v>
       </c>
       <c r="V14" t="n">
-        <v>1661.127858907921</v>
+        <v>2065.659159227358</v>
       </c>
       <c r="W14" t="n">
-        <v>1661.127858907921</v>
+        <v>2065.659159227358</v>
       </c>
       <c r="X14" t="n">
-        <v>1256.287128453956</v>
+        <v>1660.818428773392</v>
       </c>
       <c r="Y14" t="n">
-        <v>1256.287128453956</v>
+        <v>1262.36042710657</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>85.44256538304197</v>
       </c>
       <c r="H15" t="n">
-        <v>42.35548695872698</v>
+        <v>42.35548695872697</v>
       </c>
       <c r="I15" t="n">
-        <v>62.29462781642934</v>
+        <v>85.75193366084117</v>
       </c>
       <c r="J15" t="n">
-        <v>417.0692166481634</v>
+        <v>163.9959396896564</v>
       </c>
       <c r="K15" t="n">
-        <v>563.5008444911291</v>
+        <v>310.427567532622</v>
       </c>
       <c r="L15" t="n">
-        <v>767.923651848974</v>
+        <v>514.8503748904669</v>
       </c>
       <c r="M15" t="n">
-        <v>1009.62091711266</v>
+        <v>756.5476401541528</v>
       </c>
       <c r="N15" t="n">
-        <v>1260.056594594025</v>
+        <v>1006.983317635518</v>
       </c>
       <c r="O15" t="n">
-        <v>1485.54559618874</v>
+        <v>1232.472319230233</v>
       </c>
       <c r="P15" t="n">
-        <v>1663.378776165505</v>
+        <v>1557.923275880599</v>
       </c>
       <c r="Q15" t="n">
-        <v>1774.143678075321</v>
+        <v>1668.688177790415</v>
       </c>
       <c r="R15" t="n">
         <v>1815.536204021144</v>
@@ -5412,55 +5412,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>741.0621534077441</v>
+        <v>282.9432540602822</v>
       </c>
       <c r="C16" t="n">
-        <v>741.0621534077441</v>
+        <v>117.8499593174856</v>
       </c>
       <c r="D16" t="n">
-        <v>720.157344793284</v>
+        <v>108.3852815746042</v>
       </c>
       <c r="E16" t="n">
-        <v>560.8284073244249</v>
+        <v>108.3852815746042</v>
       </c>
       <c r="F16" t="n">
-        <v>395.8459014772728</v>
+        <v>108.3852815746042</v>
       </c>
       <c r="G16" t="n">
-        <v>237.3613517759143</v>
+        <v>108.3852815746042</v>
       </c>
       <c r="H16" t="n">
         <v>108.3852815746042</v>
       </c>
       <c r="I16" t="n">
-        <v>42.35548695872698</v>
+        <v>42.35548695872697</v>
       </c>
       <c r="J16" t="n">
-        <v>83.81431668414871</v>
+        <v>161.7360333323696</v>
       </c>
       <c r="K16" t="n">
-        <v>412.0449149261711</v>
+        <v>489.966631574392</v>
       </c>
       <c r="L16" t="n">
-        <v>896.8790573105587</v>
+        <v>974.8007739587795</v>
       </c>
       <c r="M16" t="n">
-        <v>1306.129289004721</v>
+        <v>1089.670554655171</v>
       </c>
       <c r="N16" t="n">
-        <v>1419.544571022453</v>
+        <v>1203.085836672903</v>
       </c>
       <c r="O16" t="n">
-        <v>1521.00106381205</v>
+        <v>1521.001063812049</v>
       </c>
       <c r="P16" t="n">
         <v>1917.473254808239</v>
       </c>
       <c r="Q16" t="n">
-        <v>2117.774347936349</v>
+        <v>2117.774347936348</v>
       </c>
       <c r="R16" t="n">
-        <v>2117.774347936349</v>
+        <v>2117.774347936348</v>
       </c>
       <c r="S16" t="n">
         <v>1970.083765809006</v>
@@ -5472,16 +5472,16 @@
         <v>1464.183416964822</v>
       </c>
       <c r="V16" t="n">
-        <v>1464.183416964822</v>
+        <v>1189.351217951138</v>
       </c>
       <c r="W16" t="n">
-        <v>1196.210281515622</v>
+        <v>921.3780825019385</v>
       </c>
       <c r="X16" t="n">
-        <v>960.5256533397147</v>
+        <v>685.693454326031</v>
       </c>
       <c r="Y16" t="n">
-        <v>741.0621534077441</v>
+        <v>466.2299543940604</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1545.764204596841</v>
+        <v>1247.84933286015</v>
       </c>
       <c r="C17" t="n">
-        <v>1545.764204596841</v>
+        <v>827.8278712517372</v>
       </c>
       <c r="D17" t="n">
-        <v>1545.764204596841</v>
+        <v>460.6004003910393</v>
       </c>
       <c r="E17" t="n">
-        <v>1126.666533122986</v>
+        <v>460.6004003910393</v>
       </c>
       <c r="F17" t="n">
-        <v>708.4216196906734</v>
+        <v>42.35548695872697</v>
       </c>
       <c r="G17" t="n">
-        <v>312.952953998051</v>
+        <v>42.35548695872697</v>
       </c>
       <c r="H17" t="n">
-        <v>42.35548695872698</v>
+        <v>42.35548695872697</v>
       </c>
       <c r="I17" t="n">
-        <v>83.38845554548379</v>
+        <v>83.38845554548357</v>
       </c>
       <c r="J17" t="n">
-        <v>219.8942334459614</v>
+        <v>219.8942334459612</v>
       </c>
       <c r="K17" t="n">
-        <v>432.7260182612551</v>
+        <v>432.7260182612549</v>
       </c>
       <c r="L17" t="n">
-        <v>702.7592035003239</v>
+        <v>702.7592035003238</v>
       </c>
       <c r="M17" t="n">
         <v>1008.369435488011</v>
@@ -5539,28 +5539,28 @@
         <v>2029.870452556934</v>
       </c>
       <c r="R17" t="n">
-        <v>2117.774347936349</v>
+        <v>2117.774347936348</v>
       </c>
       <c r="S17" t="n">
-        <v>2117.774347936349</v>
+        <v>2065.659159227358</v>
       </c>
       <c r="T17" t="n">
-        <v>2117.774347936349</v>
+        <v>2065.659159227358</v>
       </c>
       <c r="U17" t="n">
-        <v>1944.222206263663</v>
+        <v>2065.659159227358</v>
       </c>
       <c r="V17" t="n">
-        <v>1944.222206263663</v>
+        <v>2065.659159227358</v>
       </c>
       <c r="W17" t="n">
-        <v>1944.222206263663</v>
+        <v>2065.659159227358</v>
       </c>
       <c r="X17" t="n">
-        <v>1944.222206263663</v>
+        <v>1660.818428773392</v>
       </c>
       <c r="Y17" t="n">
-        <v>1545.764204596841</v>
+        <v>1660.818428773392</v>
       </c>
     </row>
     <row r="18">
@@ -5588,19 +5588,19 @@
         <v>85.44256538304197</v>
       </c>
       <c r="H18" t="n">
-        <v>42.35548695872698</v>
+        <v>42.35548695872697</v>
       </c>
       <c r="I18" t="n">
-        <v>62.29462781642934</v>
+        <v>62.29462781642933</v>
       </c>
       <c r="J18" t="n">
-        <v>417.0692166481637</v>
+        <v>417.069216648164</v>
       </c>
       <c r="K18" t="n">
-        <v>563.5008444911293</v>
+        <v>563.5008444911296</v>
       </c>
       <c r="L18" t="n">
-        <v>767.9236518489743</v>
+        <v>767.9236518489745</v>
       </c>
       <c r="M18" t="n">
         <v>1009.62091711266</v>
@@ -5649,55 +5649,55 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1041.688144031023</v>
+        <v>282.9432540602822</v>
       </c>
       <c r="C19" t="n">
-        <v>876.5948492882259</v>
+        <v>117.8499593174856</v>
       </c>
       <c r="D19" t="n">
-        <v>720.157344793284</v>
+        <v>117.8499593174856</v>
       </c>
       <c r="E19" t="n">
-        <v>560.8284073244249</v>
+        <v>117.8499593174856</v>
       </c>
       <c r="F19" t="n">
-        <v>395.8459014772728</v>
+        <v>117.8499593174856</v>
       </c>
       <c r="G19" t="n">
-        <v>237.3613517759143</v>
+        <v>117.8499593174856</v>
       </c>
       <c r="H19" t="n">
-        <v>108.3852815746042</v>
+        <v>42.35548695872697</v>
       </c>
       <c r="I19" t="n">
-        <v>42.35548695872698</v>
+        <v>42.35548695872697</v>
       </c>
       <c r="J19" t="n">
-        <v>83.81431668414871</v>
+        <v>161.7360333323696</v>
       </c>
       <c r="K19" t="n">
-        <v>164.7623058121491</v>
+        <v>489.966631574392</v>
       </c>
       <c r="L19" t="n">
-        <v>273.2075546053716</v>
+        <v>974.8007739587795</v>
       </c>
       <c r="M19" t="n">
-        <v>681.7675392375369</v>
+        <v>1498.949925073026</v>
       </c>
       <c r="N19" t="n">
-        <v>1193.215744097149</v>
+        <v>1612.365207090758</v>
       </c>
       <c r="O19" t="n">
-        <v>1672.374561189949</v>
+        <v>1713.821699880354</v>
       </c>
       <c r="P19" t="n">
-        <v>2068.846752186138</v>
+        <v>1917.473254808239</v>
       </c>
       <c r="Q19" t="n">
-        <v>2117.774347936349</v>
+        <v>2117.774347936348</v>
       </c>
       <c r="R19" t="n">
-        <v>2117.774347936349</v>
+        <v>2117.774347936348</v>
       </c>
       <c r="S19" t="n">
         <v>1970.083765809006</v>
@@ -5706,19 +5706,19 @@
         <v>1737.439879724805</v>
       </c>
       <c r="U19" t="n">
-        <v>1712.411479745971</v>
+        <v>1464.183416964822</v>
       </c>
       <c r="V19" t="n">
-        <v>1712.411479745971</v>
+        <v>1189.351217951138</v>
       </c>
       <c r="W19" t="n">
-        <v>1444.438344296771</v>
+        <v>921.3780825019385</v>
       </c>
       <c r="X19" t="n">
-        <v>1444.438344296771</v>
+        <v>685.693454326031</v>
       </c>
       <c r="Y19" t="n">
-        <v>1224.974844364801</v>
+        <v>466.2299543940604</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>821.0425872107422</v>
+        <v>849.391331193327</v>
       </c>
       <c r="C20" t="n">
-        <v>401.0211256023297</v>
+        <v>849.391331193327</v>
       </c>
       <c r="D20" t="n">
-        <v>312.952953998051</v>
+        <v>849.391331193327</v>
       </c>
       <c r="E20" t="n">
-        <v>312.952953998051</v>
+        <v>849.391331193327</v>
       </c>
       <c r="F20" t="n">
-        <v>312.952953998051</v>
+        <v>437.8241526513494</v>
       </c>
       <c r="G20" t="n">
-        <v>312.952953998051</v>
+        <v>42.35548695872696</v>
       </c>
       <c r="H20" t="n">
-        <v>42.35548695872698</v>
+        <v>42.35548695872696</v>
       </c>
       <c r="I20" t="n">
-        <v>83.38845554548334</v>
+        <v>83.38845554548368</v>
       </c>
       <c r="J20" t="n">
-        <v>219.8942334459609</v>
+        <v>219.8942334459613</v>
       </c>
       <c r="K20" t="n">
-        <v>432.7260182612547</v>
+        <v>432.7260182612545</v>
       </c>
       <c r="L20" t="n">
-        <v>702.7592035003235</v>
+        <v>702.7592035003236</v>
       </c>
       <c r="M20" t="n">
         <v>1008.36943548801</v>
@@ -5770,34 +5770,34 @@
         <v>1611.464073441579</v>
       </c>
       <c r="P20" t="n">
-        <v>1854.893307191724</v>
+        <v>1854.893307191723</v>
       </c>
       <c r="Q20" t="n">
         <v>2029.870452556934</v>
       </c>
       <c r="R20" t="n">
-        <v>2117.774347936349</v>
+        <v>2117.774347936348</v>
       </c>
       <c r="S20" t="n">
-        <v>2065.659159227358</v>
+        <v>2065.659159227357</v>
       </c>
       <c r="T20" t="n">
-        <v>1860.329020957059</v>
+        <v>2065.659159227357</v>
       </c>
       <c r="U20" t="n">
-        <v>1609.01267019893</v>
+        <v>2065.659159227357</v>
       </c>
       <c r="V20" t="n">
-        <v>1609.01267019893</v>
+        <v>2065.659159227357</v>
       </c>
       <c r="W20" t="n">
-        <v>1219.500588877564</v>
+        <v>2065.659159227357</v>
       </c>
       <c r="X20" t="n">
-        <v>1219.500588877564</v>
+        <v>1660.818428773392</v>
       </c>
       <c r="Y20" t="n">
-        <v>821.0425872107422</v>
+        <v>1262.36042710657</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>85.44256538304197</v>
       </c>
       <c r="H21" t="n">
-        <v>42.35548695872698</v>
+        <v>42.35548695872696</v>
       </c>
       <c r="I21" t="n">
-        <v>62.29462781642934</v>
+        <v>85.75193366084116</v>
       </c>
       <c r="J21" t="n">
-        <v>140.5386338452445</v>
+        <v>163.9959396896563</v>
       </c>
       <c r="K21" t="n">
-        <v>286.9702616882101</v>
+        <v>310.4275675326219</v>
       </c>
       <c r="L21" t="n">
-        <v>767.9236518489743</v>
+        <v>514.8503748904668</v>
       </c>
       <c r="M21" t="n">
-        <v>1009.62091711266</v>
+        <v>756.5476401541525</v>
       </c>
       <c r="N21" t="n">
-        <v>1260.056594594026</v>
+        <v>1006.983317635518</v>
       </c>
       <c r="O21" t="n">
-        <v>1485.54559618874</v>
+        <v>1232.472319230232</v>
       </c>
       <c r="P21" t="n">
-        <v>1663.378776165505</v>
+        <v>1410.305499206997</v>
       </c>
       <c r="Q21" t="n">
-        <v>1774.143678075321</v>
+        <v>1668.688177790415</v>
       </c>
       <c r="R21" t="n">
         <v>1815.536204021144</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>372.4312875486758</v>
+        <v>558.8921510136528</v>
       </c>
       <c r="C22" t="n">
-        <v>207.3379928058792</v>
+        <v>393.7988562708562</v>
       </c>
       <c r="D22" t="n">
-        <v>207.3379928058792</v>
+        <v>237.3613517759142</v>
       </c>
       <c r="E22" t="n">
-        <v>207.3379928058792</v>
+        <v>237.3613517759142</v>
       </c>
       <c r="F22" t="n">
-        <v>42.35548695872698</v>
+        <v>237.3613517759142</v>
       </c>
       <c r="G22" t="n">
-        <v>42.35548695872698</v>
+        <v>237.3613517759142</v>
       </c>
       <c r="H22" t="n">
-        <v>42.35548695872698</v>
+        <v>108.3852815746042</v>
       </c>
       <c r="I22" t="n">
-        <v>42.35548695872698</v>
+        <v>42.35548695872696</v>
       </c>
       <c r="J22" t="n">
         <v>161.7360333323696</v>
       </c>
       <c r="K22" t="n">
-        <v>242.68402246037</v>
+        <v>489.966631574392</v>
       </c>
       <c r="L22" t="n">
-        <v>727.5181648447574</v>
+        <v>974.8007739587795</v>
       </c>
       <c r="M22" t="n">
-        <v>994.5237438108443</v>
+        <v>1089.670554655171</v>
       </c>
       <c r="N22" t="n">
-        <v>1505.971948670457</v>
+        <v>1203.085836672903</v>
       </c>
       <c r="O22" t="n">
-        <v>1985.130765763256</v>
+        <v>1521.001063812049</v>
       </c>
       <c r="P22" t="n">
-        <v>2068.846752186138</v>
+        <v>1917.473254808238</v>
       </c>
       <c r="Q22" t="n">
-        <v>2117.774347936349</v>
+        <v>2117.774347936348</v>
       </c>
       <c r="R22" t="n">
-        <v>2117.774347936349</v>
+        <v>2117.774347936348</v>
       </c>
       <c r="S22" t="n">
-        <v>2059.571799297399</v>
+        <v>2117.774347936348</v>
       </c>
       <c r="T22" t="n">
-        <v>1826.927913213199</v>
+        <v>2013.388776678176</v>
       </c>
       <c r="U22" t="n">
-        <v>1553.671450453215</v>
+        <v>1740.132313918192</v>
       </c>
       <c r="V22" t="n">
-        <v>1278.839251439532</v>
+        <v>1465.300114904509</v>
       </c>
       <c r="W22" t="n">
-        <v>1010.866115990332</v>
+        <v>1197.326979455309</v>
       </c>
       <c r="X22" t="n">
-        <v>775.1814878144246</v>
+        <v>961.6423512794015</v>
       </c>
       <c r="Y22" t="n">
-        <v>555.7179878824541</v>
+        <v>742.178851347431</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1518.253716365359</v>
+        <v>1978.58593675935</v>
       </c>
       <c r="C23" t="n">
-        <v>1518.253716365359</v>
+        <v>1558.564475150938</v>
       </c>
       <c r="D23" t="n">
-        <v>1518.253716365359</v>
+        <v>1142.151122714225</v>
       </c>
       <c r="E23" t="n">
         <v>1142.151122714225</v>
@@ -5986,55 +5986,55 @@
         <v>57.84007654996658</v>
       </c>
       <c r="I23" t="n">
-        <v>98.87304513672333</v>
+        <v>98.87304513672331</v>
       </c>
       <c r="J23" t="n">
-        <v>627.1080417448272</v>
+        <v>502.2748056452062</v>
       </c>
       <c r="K23" t="n">
-        <v>839.9398265601211</v>
+        <v>715.1065904605</v>
       </c>
       <c r="L23" t="n">
-        <v>1109.97301179919</v>
+        <v>985.1397756995689</v>
       </c>
       <c r="M23" t="n">
-        <v>1630.360256772241</v>
+        <v>1290.750007687256</v>
       </c>
       <c r="N23" t="n">
-        <v>1941.665325680709</v>
+        <v>1602.055076595725</v>
       </c>
       <c r="O23" t="n">
-        <v>2233.454894725809</v>
+        <v>1893.844645640824</v>
       </c>
       <c r="P23" t="n">
-        <v>2476.884128475953</v>
+        <v>2137.273879390968</v>
       </c>
       <c r="Q23" t="n">
-        <v>2651.861273841163</v>
+        <v>2804.099932118914</v>
       </c>
       <c r="R23" t="n">
         <v>2892.003827498329</v>
       </c>
       <c r="S23" t="n">
-        <v>2892.003827498329</v>
+        <v>2839.888638789338</v>
       </c>
       <c r="T23" t="n">
-        <v>2686.67368922803</v>
+        <v>2634.558500519039</v>
       </c>
       <c r="U23" t="n">
-        <v>2686.67368922803</v>
+        <v>2383.24214976091</v>
       </c>
       <c r="V23" t="n">
-        <v>2336.063542732567</v>
+        <v>2383.24214976091</v>
       </c>
       <c r="W23" t="n">
-        <v>2336.063542732567</v>
+        <v>2377.043938426173</v>
       </c>
       <c r="X23" t="n">
-        <v>1931.222812278602</v>
+        <v>2377.043938426173</v>
       </c>
       <c r="Y23" t="n">
-        <v>1931.222812278602</v>
+        <v>1978.58593675935</v>
       </c>
     </row>
     <row r="24">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>613.60920518519</v>
+        <v>613.6092051851901</v>
       </c>
       <c r="C24" t="n">
-        <v>496.1033017026948</v>
+        <v>496.1033017026949</v>
       </c>
       <c r="D24" t="n">
         <v>392.2633432179799</v>
@@ -6056,7 +6056,7 @@
         <v>287.5614094909171</v>
       </c>
       <c r="F24" t="n">
-        <v>193.9155791738212</v>
+        <v>193.9155791738213</v>
       </c>
       <c r="G24" t="n">
         <v>100.9271549742816</v>
@@ -6065,28 +6065,28 @@
         <v>57.84007654996658</v>
       </c>
       <c r="I24" t="n">
-        <v>77.77921740766895</v>
+        <v>101.2365232520808</v>
       </c>
       <c r="J24" t="n">
-        <v>156.0232234364842</v>
+        <v>327.0983059544975</v>
       </c>
       <c r="K24" t="n">
-        <v>302.4548512794498</v>
+        <v>473.5299337974632</v>
       </c>
       <c r="L24" t="n">
-        <v>506.8776586372949</v>
+        <v>677.9527411553081</v>
       </c>
       <c r="M24" t="n">
-        <v>748.5749239009807</v>
+        <v>919.6500064189938</v>
       </c>
       <c r="N24" t="n">
-        <v>999.0106013823465</v>
+        <v>1170.08568390036</v>
       </c>
       <c r="O24" t="n">
-        <v>1224.499602977061</v>
+        <v>1395.574685495074</v>
       </c>
       <c r="P24" t="n">
-        <v>1402.332782953826</v>
+        <v>1573.407865471839</v>
       </c>
       <c r="Q24" t="n">
         <v>1684.172767381654</v>
@@ -6110,10 +6110,10 @@
         <v>1045.706449485298</v>
       </c>
       <c r="X24" t="n">
-        <v>882.2291032519604</v>
+        <v>882.2291032519605</v>
       </c>
       <c r="Y24" t="n">
-        <v>742.5362146052528</v>
+        <v>742.5362146052529</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1057.172733622261</v>
+        <v>1057.172733622262</v>
       </c>
       <c r="C25" t="n">
-        <v>892.0794388794648</v>
+        <v>892.0794388794654</v>
       </c>
       <c r="D25" t="n">
-        <v>735.641934384523</v>
+        <v>735.6419343845236</v>
       </c>
       <c r="E25" t="n">
-        <v>576.3129969156639</v>
+        <v>576.3129969156645</v>
       </c>
       <c r="F25" t="n">
-        <v>411.3304910685117</v>
+        <v>411.3304910685123</v>
       </c>
       <c r="G25" t="n">
-        <v>252.8459413671539</v>
+        <v>252.8459413671538</v>
       </c>
       <c r="H25" t="n">
         <v>123.8698711658439</v>
@@ -6153,19 +6153,19 @@
         <v>505.4512211656316</v>
       </c>
       <c r="L25" t="n">
-        <v>776.2182602624041</v>
+        <v>990.2853635500192</v>
       </c>
       <c r="M25" t="n">
-        <v>1304.623521421618</v>
+        <v>1518.690624709232</v>
       </c>
       <c r="N25" t="n">
-        <v>1816.07172628123</v>
+        <v>2030.138829568845</v>
       </c>
       <c r="O25" t="n">
-        <v>2295.23054337403</v>
+        <v>2509.297646661645</v>
       </c>
       <c r="P25" t="n">
-        <v>2691.702734370219</v>
+        <v>2843.076231748119</v>
       </c>
       <c r="Q25" t="n">
         <v>2892.003827498329</v>
@@ -6189,7 +6189,7 @@
         <v>1695.607562063918</v>
       </c>
       <c r="X25" t="n">
-        <v>1459.92293388801</v>
+        <v>1459.922933888011</v>
       </c>
       <c r="Y25" t="n">
         <v>1240.45943395604</v>
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1591.012159416589</v>
+        <v>1761.380840729767</v>
       </c>
       <c r="C26" t="n">
-        <v>1591.012159416589</v>
+        <v>1334.480110743068</v>
       </c>
       <c r="D26" t="n">
-        <v>1591.012159416589</v>
+        <v>911.187489928068</v>
       </c>
       <c r="E26" t="n">
-        <v>1165.035219564447</v>
+        <v>485.2105500759255</v>
       </c>
       <c r="F26" t="n">
-        <v>739.911037753847</v>
+        <v>60.08636826532572</v>
       </c>
       <c r="G26" t="n">
-        <v>337.5631036829372</v>
+        <v>60.08636826532572</v>
       </c>
       <c r="H26" t="n">
-        <v>60.08636826532573</v>
+        <v>60.08636826532572</v>
       </c>
       <c r="I26" t="n">
-        <v>101.1193368520825</v>
+        <v>101.1193368520824</v>
       </c>
       <c r="J26" t="n">
-        <v>614.589391413163</v>
+        <v>614.5893914131632</v>
       </c>
       <c r="K26" t="n">
-        <v>827.4211762284568</v>
+        <v>827.4211762284569</v>
       </c>
       <c r="L26" t="n">
         <v>1097.454361467526</v>
@@ -6241,37 +6241,37 @@
         <v>1714.369662363682</v>
       </c>
       <c r="O26" t="n">
-        <v>2006.159231408782</v>
+        <v>2006.159231408781</v>
       </c>
       <c r="P26" t="n">
-        <v>2249.588465158926</v>
+        <v>2249.588465158925</v>
       </c>
       <c r="Q26" t="n">
-        <v>2916.414517886872</v>
+        <v>2916.414517886871</v>
       </c>
       <c r="R26" t="n">
         <v>3004.318413266286</v>
       </c>
       <c r="S26" t="n">
-        <v>2945.323956179008</v>
+        <v>2945.323956179007</v>
       </c>
       <c r="T26" t="n">
-        <v>2945.323956179008</v>
+        <v>2945.323956179007</v>
       </c>
       <c r="U26" t="n">
         <v>2687.128337042591</v>
       </c>
       <c r="V26" t="n">
-        <v>2329.638922168841</v>
+        <v>2687.128337042591</v>
       </c>
       <c r="W26" t="n">
-        <v>2329.638922168841</v>
+        <v>2687.128337042591</v>
       </c>
       <c r="X26" t="n">
-        <v>2329.638922168841</v>
+        <v>2275.408338210338</v>
       </c>
       <c r="Y26" t="n">
-        <v>2010.860523708119</v>
+        <v>2181.229205021297</v>
       </c>
     </row>
     <row r="27">
@@ -6299,19 +6299,19 @@
         <v>103.1734466896407</v>
       </c>
       <c r="H27" t="n">
-        <v>60.08636826532573</v>
+        <v>60.08636826532572</v>
       </c>
       <c r="I27" t="n">
-        <v>80.0255091230281</v>
+        <v>80.02550912302807</v>
       </c>
       <c r="J27" t="n">
-        <v>434.800097954762</v>
+        <v>434.8000979547625</v>
       </c>
       <c r="K27" t="n">
-        <v>581.2317257977277</v>
+        <v>581.2317257977281</v>
       </c>
       <c r="L27" t="n">
-        <v>785.6545331555727</v>
+        <v>785.6545331555731</v>
       </c>
       <c r="M27" t="n">
         <v>1027.351798419259</v>
@@ -6363,34 +6363,34 @@
         <v>1107.573903985633</v>
       </c>
       <c r="C28" t="n">
-        <v>935.601340864549</v>
+        <v>935.6013408645485</v>
       </c>
       <c r="D28" t="n">
-        <v>772.2845679913198</v>
+        <v>772.2845679913196</v>
       </c>
       <c r="E28" t="n">
-        <v>606.0763621441733</v>
+        <v>606.0763621441731</v>
       </c>
       <c r="F28" t="n">
-        <v>434.2145879187337</v>
+        <v>434.2145879187335</v>
       </c>
       <c r="G28" t="n">
-        <v>268.8507698390878</v>
+        <v>268.8507698390877</v>
       </c>
       <c r="H28" t="n">
         <v>132.9954312594904</v>
       </c>
       <c r="I28" t="n">
-        <v>60.08636826532573</v>
+        <v>60.08636826532572</v>
       </c>
       <c r="J28" t="n">
-        <v>101.5451979907475</v>
+        <v>179.4669146389683</v>
       </c>
       <c r="K28" t="n">
-        <v>429.7757962327699</v>
+        <v>507.6975128809908</v>
       </c>
       <c r="L28" t="n">
-        <v>888.5328460303615</v>
+        <v>992.5316552653783</v>
       </c>
       <c r="M28" t="n">
         <v>1416.938107189575</v>
@@ -6402,7 +6402,7 @@
         <v>2407.545129141987</v>
       </c>
       <c r="P28" t="n">
-        <v>2804.017320138177</v>
+        <v>2804.017320138176</v>
       </c>
       <c r="Q28" t="n">
         <v>3004.318413266286</v>
@@ -6411,25 +6411,25 @@
         <v>2997.439144887999</v>
       </c>
       <c r="S28" t="n">
-        <v>2842.869294382369</v>
+        <v>2842.869294382368</v>
       </c>
       <c r="T28" t="n">
-        <v>2603.346139919881</v>
+        <v>2603.34613991988</v>
       </c>
       <c r="U28" t="n">
-        <v>2323.21040878161</v>
+        <v>2323.210408781609</v>
       </c>
       <c r="V28" t="n">
-        <v>2041.498941389639</v>
+        <v>2041.498941389638</v>
       </c>
       <c r="W28" t="n">
         <v>1766.646537562151</v>
       </c>
       <c r="X28" t="n">
-        <v>1524.082641007957</v>
+        <v>1524.082641007956</v>
       </c>
       <c r="Y28" t="n">
-        <v>1297.739872697699</v>
+        <v>1297.739872697698</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2017.912889403289</v>
+        <v>1761.380840729767</v>
       </c>
       <c r="C29" t="n">
-        <v>1591.012159416589</v>
+        <v>1334.480110743068</v>
       </c>
       <c r="D29" t="n">
-        <v>1591.012159416589</v>
+        <v>911.187489928068</v>
       </c>
       <c r="E29" t="n">
-        <v>1165.035219564447</v>
+        <v>485.2105500759255</v>
       </c>
       <c r="F29" t="n">
-        <v>739.911037753847</v>
+        <v>60.08636826532573</v>
       </c>
       <c r="G29" t="n">
-        <v>337.5631036829372</v>
+        <v>60.08636826532573</v>
       </c>
       <c r="H29" t="n">
         <v>60.08636826532573</v>
@@ -6463,10 +6463,10 @@
         <v>101.1193368520825</v>
       </c>
       <c r="J29" t="n">
-        <v>614.589391413163</v>
+        <v>614.5893914131636</v>
       </c>
       <c r="K29" t="n">
-        <v>827.4211762284568</v>
+        <v>827.4211762284574</v>
       </c>
       <c r="L29" t="n">
         <v>1097.454361467526</v>
@@ -6490,25 +6490,25 @@
         <v>3004.318413266286</v>
       </c>
       <c r="S29" t="n">
-        <v>2945.323956179008</v>
+        <v>3004.318413266286</v>
       </c>
       <c r="T29" t="n">
-        <v>2826.024237935195</v>
+        <v>3004.318413266286</v>
       </c>
       <c r="U29" t="n">
-        <v>2826.024237935195</v>
+        <v>2746.12279412987</v>
       </c>
       <c r="V29" t="n">
-        <v>2826.024237935195</v>
+        <v>2388.633379256119</v>
       </c>
       <c r="W29" t="n">
-        <v>2429.632888235542</v>
+        <v>1992.242029556466</v>
       </c>
       <c r="X29" t="n">
-        <v>2017.912889403289</v>
+        <v>1761.380840729767</v>
       </c>
       <c r="Y29" t="n">
-        <v>2017.912889403289</v>
+        <v>1761.380840729767</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>60.08636826532573</v>
       </c>
       <c r="I30" t="n">
-        <v>80.0255091230281</v>
+        <v>80.02550912302809</v>
       </c>
       <c r="J30" t="n">
-        <v>158.2695151518433</v>
+        <v>434.8000979547625</v>
       </c>
       <c r="K30" t="n">
-        <v>304.7011429948089</v>
+        <v>581.2317257977281</v>
       </c>
       <c r="L30" t="n">
-        <v>509.123950352654</v>
+        <v>785.6545331555731</v>
       </c>
       <c r="M30" t="n">
-        <v>750.8212156163398</v>
+        <v>1027.351798419259</v>
       </c>
       <c r="N30" t="n">
-        <v>1001.256893097706</v>
+        <v>1277.787475900624</v>
       </c>
       <c r="O30" t="n">
-        <v>1226.74589469242</v>
+        <v>1503.276477495339</v>
       </c>
       <c r="P30" t="n">
-        <v>1404.579074669185</v>
+        <v>1681.109657472104</v>
       </c>
       <c r="Q30" t="n">
         <v>1791.874559381919</v>
@@ -6600,19 +6600,19 @@
         <v>1107.573903985633</v>
       </c>
       <c r="C31" t="n">
-        <v>935.6013408645495</v>
+        <v>935.601340864549</v>
       </c>
       <c r="D31" t="n">
-        <v>772.2845679913202</v>
+        <v>772.2845679913198</v>
       </c>
       <c r="E31" t="n">
-        <v>606.0763621441737</v>
+        <v>606.0763621441733</v>
       </c>
       <c r="F31" t="n">
-        <v>434.2145879187341</v>
+        <v>434.2145879187337</v>
       </c>
       <c r="G31" t="n">
-        <v>268.8507698390882</v>
+        <v>268.8507698390878</v>
       </c>
       <c r="H31" t="n">
         <v>132.9954312594904</v>
@@ -6621,25 +6621,25 @@
         <v>60.08636826532573</v>
       </c>
       <c r="J31" t="n">
-        <v>101.5451979907475</v>
+        <v>179.4669146389683</v>
       </c>
       <c r="K31" t="n">
-        <v>429.7757962327699</v>
+        <v>507.6975128809908</v>
       </c>
       <c r="L31" t="n">
-        <v>914.6099386171575</v>
+        <v>992.5316552653783</v>
       </c>
       <c r="M31" t="n">
-        <v>1443.015199776371</v>
+        <v>1520.936916424592</v>
       </c>
       <c r="N31" t="n">
-        <v>1954.463404635983</v>
+        <v>2032.385121284204</v>
       </c>
       <c r="O31" t="n">
-        <v>2433.622221728783</v>
+        <v>2511.543938377004</v>
       </c>
       <c r="P31" t="n">
-        <v>2830.094412724973</v>
+        <v>2908.016129373194</v>
       </c>
       <c r="Q31" t="n">
         <v>3004.318413266286</v>
@@ -6648,7 +6648,7 @@
         <v>2997.439144887999</v>
       </c>
       <c r="S31" t="n">
-        <v>2842.869294382369</v>
+        <v>2842.869294382368</v>
       </c>
       <c r="T31" t="n">
         <v>2603.346139919881</v>
@@ -6660,7 +6660,7 @@
         <v>2041.498941389639</v>
       </c>
       <c r="W31" t="n">
-        <v>1766.646537562152</v>
+        <v>1766.646537562151</v>
       </c>
       <c r="X31" t="n">
         <v>1524.082641007957</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2128.266687301646</v>
+        <v>484.1325326517089</v>
       </c>
       <c r="C32" t="n">
-        <v>1736.828044813978</v>
+        <v>337.5631036829372</v>
       </c>
       <c r="D32" t="n">
-        <v>1313.535423998978</v>
+        <v>337.5631036829372</v>
       </c>
       <c r="E32" t="n">
-        <v>887.5584841468353</v>
+        <v>337.5631036829372</v>
       </c>
       <c r="F32" t="n">
-        <v>462.4343023362356</v>
+        <v>337.5631036829372</v>
       </c>
       <c r="G32" t="n">
-        <v>60.08636826532573</v>
+        <v>337.5631036829372</v>
       </c>
       <c r="H32" t="n">
         <v>60.08636826532573</v>
@@ -6700,13 +6700,13 @@
         <v>101.1193368520825</v>
       </c>
       <c r="J32" t="n">
-        <v>237.6251147525602</v>
+        <v>237.6251147525601</v>
       </c>
       <c r="K32" t="n">
-        <v>450.4568995678541</v>
+        <v>450.4568995678539</v>
       </c>
       <c r="L32" t="n">
-        <v>720.4900848069231</v>
+        <v>720.4900848069228</v>
       </c>
       <c r="M32" t="n">
         <v>1026.10031679461</v>
@@ -6715,10 +6715,10 @@
         <v>1337.405385703079</v>
       </c>
       <c r="O32" t="n">
-        <v>2080.974192986485</v>
+        <v>1853.920573131031</v>
       </c>
       <c r="P32" t="n">
-        <v>2589.19871424391</v>
+        <v>2097.349806881175</v>
       </c>
       <c r="Q32" t="n">
         <v>2764.175859609121</v>
@@ -6730,22 +6730,22 @@
         <v>2945.323956179008</v>
       </c>
       <c r="T32" t="n">
-        <v>2945.323956179008</v>
+        <v>2733.114549530422</v>
       </c>
       <c r="U32" t="n">
-        <v>2945.323956179008</v>
+        <v>2474.918930394005</v>
       </c>
       <c r="V32" t="n">
-        <v>2945.323956179008</v>
+        <v>2117.429515520254</v>
       </c>
       <c r="W32" t="n">
-        <v>2945.323956179008</v>
+        <v>1721.038165820601</v>
       </c>
       <c r="X32" t="n">
-        <v>2533.603957346755</v>
+        <v>1309.318166988349</v>
       </c>
       <c r="Y32" t="n">
-        <v>2128.266687301646</v>
+        <v>903.9808969432389</v>
       </c>
     </row>
     <row r="33">
@@ -6779,13 +6779,13 @@
         <v>103.4828149674399</v>
       </c>
       <c r="J33" t="n">
-        <v>329.3445976698562</v>
+        <v>329.3445976698564</v>
       </c>
       <c r="K33" t="n">
-        <v>475.7762255128218</v>
+        <v>475.7762255128221</v>
       </c>
       <c r="L33" t="n">
-        <v>680.1990328706669</v>
+        <v>680.199032870667</v>
       </c>
       <c r="M33" t="n">
         <v>921.8962981343527</v>
@@ -6840,16 +6840,16 @@
         <v>935.601340864549</v>
       </c>
       <c r="D34" t="n">
-        <v>772.2845679913197</v>
+        <v>772.2845679913196</v>
       </c>
       <c r="E34" t="n">
-        <v>606.0763621441732</v>
+        <v>606.0763621441731</v>
       </c>
       <c r="F34" t="n">
-        <v>434.2145879187336</v>
+        <v>434.2145879187335</v>
       </c>
       <c r="G34" t="n">
-        <v>268.8507698390878</v>
+        <v>268.8507698390877</v>
       </c>
       <c r="H34" t="n">
         <v>132.9954312594904</v>
@@ -6885,10 +6885,10 @@
         <v>2997.439144887999</v>
       </c>
       <c r="S34" t="n">
-        <v>2842.869294382368</v>
+        <v>2842.869294382369</v>
       </c>
       <c r="T34" t="n">
-        <v>2603.34613991988</v>
+        <v>2603.346139919881</v>
       </c>
       <c r="U34" t="n">
         <v>2323.21040878161</v>
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>867.9960418446366</v>
+        <v>1227.211527725288</v>
       </c>
       <c r="C35" t="n">
-        <v>867.9960418446366</v>
+        <v>800.3107977385882</v>
       </c>
       <c r="D35" t="n">
-        <v>444.7034210296368</v>
+        <v>800.3107977385882</v>
       </c>
       <c r="E35" t="n">
-        <v>444.7034210296368</v>
+        <v>800.3107977385882</v>
       </c>
       <c r="F35" t="n">
-        <v>444.7034210296368</v>
+        <v>375.1866159279884</v>
       </c>
       <c r="G35" t="n">
-        <v>42.35548695872698</v>
+        <v>42.35548695872699</v>
       </c>
       <c r="H35" t="n">
-        <v>42.35548695872698</v>
+        <v>42.35548695872699</v>
       </c>
       <c r="I35" t="n">
-        <v>83.38845554548368</v>
+        <v>83.38845554548374</v>
       </c>
       <c r="J35" t="n">
         <v>219.8942334459614</v>
@@ -6958,31 +6958,31 @@
         <v>1854.893307191724</v>
       </c>
       <c r="Q35" t="n">
-        <v>2029.870452556934</v>
+        <v>2029.870452556935</v>
       </c>
       <c r="R35" t="n">
         <v>2117.774347936349</v>
       </c>
       <c r="S35" t="n">
-        <v>2117.774347936349</v>
+        <v>2058.779890849071</v>
       </c>
       <c r="T35" t="n">
-        <v>1905.564941287763</v>
+        <v>2058.779890849071</v>
       </c>
       <c r="U35" t="n">
-        <v>1647.369322151347</v>
+        <v>2058.779890849071</v>
       </c>
       <c r="V35" t="n">
-        <v>1289.879907277596</v>
+        <v>2058.779890849071</v>
       </c>
       <c r="W35" t="n">
-        <v>1279.716040676889</v>
+        <v>2058.779890849071</v>
       </c>
       <c r="X35" t="n">
-        <v>867.9960418446366</v>
+        <v>1647.059892016818</v>
       </c>
       <c r="Y35" t="n">
-        <v>867.9960418446366</v>
+        <v>1647.059892016818</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>178.4309895825817</v>
       </c>
       <c r="G36" t="n">
-        <v>85.44256538304197</v>
+        <v>85.44256538304198</v>
       </c>
       <c r="H36" t="n">
-        <v>42.35548695872698</v>
+        <v>42.35548695872699</v>
       </c>
       <c r="I36" t="n">
-        <v>85.75193366084119</v>
+        <v>62.29462781642935</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9959396896564</v>
+        <v>140.5386338452445</v>
       </c>
       <c r="K36" t="n">
         <v>563.5008444911289</v>
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>709.9961580506661</v>
+        <v>917.9812484535947</v>
       </c>
       <c r="C37" t="n">
-        <v>538.023594929582</v>
+        <v>746.0086853325107</v>
       </c>
       <c r="D37" t="n">
-        <v>538.023594929582</v>
+        <v>582.6919124592814</v>
       </c>
       <c r="E37" t="n">
-        <v>371.8153890824356</v>
+        <v>416.4837066121349</v>
       </c>
       <c r="F37" t="n">
-        <v>199.953614856996</v>
+        <v>416.4837066121349</v>
       </c>
       <c r="G37" t="n">
-        <v>199.953614856996</v>
+        <v>251.1198885324891</v>
       </c>
       <c r="H37" t="n">
-        <v>64.09827627739858</v>
+        <v>115.2645499528917</v>
       </c>
       <c r="I37" t="n">
-        <v>42.35548695872698</v>
+        <v>42.35548695872699</v>
       </c>
       <c r="J37" t="n">
-        <v>83.81431668414874</v>
+        <v>161.7360333323696</v>
       </c>
       <c r="K37" t="n">
-        <v>412.0449149261711</v>
+        <v>489.9666315743921</v>
       </c>
       <c r="L37" t="n">
-        <v>896.8790573105587</v>
+        <v>598.4118803676146</v>
       </c>
       <c r="M37" t="n">
-        <v>1011.74883800695</v>
+        <v>1122.561031481861</v>
       </c>
       <c r="N37" t="n">
-        <v>1125.164120024683</v>
+        <v>1634.009236341473</v>
       </c>
       <c r="O37" t="n">
-        <v>1604.322937117483</v>
+        <v>1735.46572913107</v>
       </c>
       <c r="P37" t="n">
-        <v>1917.473254808239</v>
+        <v>1917.47325480824</v>
       </c>
       <c r="Q37" t="n">
         <v>2117.774347936349</v>
@@ -7122,25 +7122,25 @@
         <v>2117.774347936349</v>
       </c>
       <c r="S37" t="n">
-        <v>1963.204497430719</v>
+        <v>2117.774347936349</v>
       </c>
       <c r="T37" t="n">
-        <v>1963.204497430719</v>
+        <v>1944.84681952339</v>
       </c>
       <c r="U37" t="n">
-        <v>1683.068766292448</v>
+        <v>1664.711088385119</v>
       </c>
       <c r="V37" t="n">
-        <v>1401.357298900477</v>
+        <v>1382.999620993147</v>
       </c>
       <c r="W37" t="n">
-        <v>1126.50489507299</v>
+        <v>1108.14721716566</v>
       </c>
       <c r="X37" t="n">
-        <v>1126.50489507299</v>
+        <v>1108.14721716566</v>
       </c>
       <c r="Y37" t="n">
-        <v>900.1621267627318</v>
+        <v>1108.14721716566</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>467.4796687693268</v>
+        <v>469.2562169454269</v>
       </c>
       <c r="C38" t="n">
-        <v>467.4796687693268</v>
+        <v>42.35548695872699</v>
       </c>
       <c r="D38" t="n">
-        <v>467.4796687693268</v>
+        <v>42.35548695872699</v>
       </c>
       <c r="E38" t="n">
-        <v>467.4796687693268</v>
+        <v>42.35548695872699</v>
       </c>
       <c r="F38" t="n">
-        <v>42.35548695872698</v>
+        <v>42.35548695872699</v>
       </c>
       <c r="G38" t="n">
-        <v>42.35548695872698</v>
+        <v>42.35548695872699</v>
       </c>
       <c r="H38" t="n">
-        <v>42.35548695872698</v>
+        <v>42.35548695872699</v>
       </c>
       <c r="I38" t="n">
-        <v>83.38845554548369</v>
+        <v>83.38845554548334</v>
       </c>
       <c r="J38" t="n">
-        <v>219.8942334459613</v>
+        <v>219.8942334459607</v>
       </c>
       <c r="K38" t="n">
-        <v>432.7260182612551</v>
+        <v>432.7260182612549</v>
       </c>
       <c r="L38" t="n">
-        <v>702.759203500324</v>
+        <v>702.7592035003242</v>
       </c>
       <c r="M38" t="n">
         <v>1008.369435488011</v>
@@ -7195,31 +7195,31 @@
         <v>1854.893307191724</v>
       </c>
       <c r="Q38" t="n">
-        <v>2029.870452556934</v>
+        <v>2029.870452556935</v>
       </c>
       <c r="R38" t="n">
         <v>2117.774347936349</v>
       </c>
       <c r="S38" t="n">
-        <v>2058.77989084907</v>
+        <v>2058.779890849071</v>
       </c>
       <c r="T38" t="n">
-        <v>2058.77989084907</v>
+        <v>2058.779890849071</v>
       </c>
       <c r="U38" t="n">
-        <v>2058.77989084907</v>
+        <v>2058.779890849071</v>
       </c>
       <c r="V38" t="n">
-        <v>2058.77989084907</v>
+        <v>2058.779890849071</v>
       </c>
       <c r="W38" t="n">
-        <v>1704.385301938219</v>
+        <v>1706.161850114319</v>
       </c>
       <c r="X38" t="n">
-        <v>1292.665303105966</v>
+        <v>1294.441851282067</v>
       </c>
       <c r="Y38" t="n">
-        <v>887.3280330608568</v>
+        <v>889.104581236957</v>
       </c>
     </row>
     <row r="39">
@@ -7244,37 +7244,37 @@
         <v>178.4309895825817</v>
       </c>
       <c r="G39" t="n">
-        <v>85.44256538304197</v>
+        <v>85.44256538304198</v>
       </c>
       <c r="H39" t="n">
-        <v>42.35548695872698</v>
+        <v>42.35548695872699</v>
       </c>
       <c r="I39" t="n">
-        <v>85.75193366084119</v>
+        <v>62.29462781642935</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9959396896564</v>
+        <v>140.5386338452445</v>
       </c>
       <c r="K39" t="n">
-        <v>310.427567532622</v>
+        <v>286.9702616882102</v>
       </c>
       <c r="L39" t="n">
-        <v>514.8503748904669</v>
+        <v>491.3930690460552</v>
       </c>
       <c r="M39" t="n">
-        <v>756.5476401541528</v>
+        <v>733.090334309741</v>
       </c>
       <c r="N39" t="n">
-        <v>1006.983317635518</v>
+        <v>983.5260117911068</v>
       </c>
       <c r="O39" t="n">
-        <v>1232.472319230233</v>
+        <v>1209.015013385821</v>
       </c>
       <c r="P39" t="n">
-        <v>1410.305499206998</v>
+        <v>1386.848193362586</v>
       </c>
       <c r="Q39" t="n">
-        <v>1668.688177790415</v>
+        <v>1774.143678075321</v>
       </c>
       <c r="R39" t="n">
         <v>1815.536204021144</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>582.6919124592814</v>
+        <v>1089.843022679034</v>
       </c>
       <c r="C40" t="n">
-        <v>582.6919124592814</v>
+        <v>917.8704595579503</v>
       </c>
       <c r="D40" t="n">
-        <v>582.6919124592814</v>
+        <v>754.553686684721</v>
       </c>
       <c r="E40" t="n">
-        <v>416.4837066121349</v>
+        <v>588.3454808375745</v>
       </c>
       <c r="F40" t="n">
         <v>416.4837066121349</v>
@@ -7329,55 +7329,55 @@
         <v>115.2645499528917</v>
       </c>
       <c r="I40" t="n">
-        <v>42.35548695872698</v>
+        <v>42.35548695872699</v>
       </c>
       <c r="J40" t="n">
-        <v>83.81431668414871</v>
+        <v>161.7360333323696</v>
       </c>
       <c r="K40" t="n">
-        <v>328.7230416207387</v>
+        <v>489.9666315743921</v>
       </c>
       <c r="L40" t="n">
-        <v>813.5571840051261</v>
+        <v>974.8007739587796</v>
       </c>
       <c r="M40" t="n">
-        <v>928.4269647015178</v>
+        <v>1089.670554655171</v>
       </c>
       <c r="N40" t="n">
-        <v>1041.84224671925</v>
+        <v>1601.118759514784</v>
       </c>
       <c r="O40" t="n">
-        <v>1521.00106381205</v>
+        <v>1702.57525230438</v>
       </c>
       <c r="P40" t="n">
-        <v>1917.473254808239</v>
+        <v>1917.47325480824</v>
       </c>
       <c r="Q40" t="n">
         <v>2117.774347936349</v>
       </c>
       <c r="R40" t="n">
-        <v>2110.895079558062</v>
+        <v>2117.774347936349</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.325229052431</v>
+        <v>1963.204497430719</v>
       </c>
       <c r="T40" t="n">
-        <v>1716.802074589944</v>
+        <v>1748.915656255553</v>
       </c>
       <c r="U40" t="n">
-        <v>1436.666343451673</v>
+        <v>1748.915656255553</v>
       </c>
       <c r="V40" t="n">
-        <v>1154.954876059702</v>
+        <v>1748.915656255553</v>
       </c>
       <c r="W40" t="n">
-        <v>880.1024722322145</v>
+        <v>1748.915656255553</v>
       </c>
       <c r="X40" t="n">
-        <v>880.1024722322145</v>
+        <v>1506.351759701358</v>
       </c>
       <c r="Y40" t="n">
-        <v>653.7597039219565</v>
+        <v>1280.0089913911</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1168.249025001938</v>
+        <v>1743.649959423169</v>
       </c>
       <c r="C41" t="n">
-        <v>1168.249025001938</v>
+        <v>1316.749229436469</v>
       </c>
       <c r="D41" t="n">
-        <v>744.9564041869382</v>
+        <v>893.4566086214693</v>
       </c>
       <c r="E41" t="n">
-        <v>744.9564041869382</v>
+        <v>467.4796687693268</v>
       </c>
       <c r="F41" t="n">
-        <v>319.8322223763384</v>
+        <v>42.35548695872699</v>
       </c>
       <c r="G41" t="n">
-        <v>319.8322223763384</v>
+        <v>42.35548695872699</v>
       </c>
       <c r="H41" t="n">
-        <v>42.35548695872698</v>
+        <v>42.35548695872699</v>
       </c>
       <c r="I41" t="n">
-        <v>83.38845554548379</v>
+        <v>83.38845554548374</v>
       </c>
       <c r="J41" t="n">
-        <v>219.8942334459612</v>
+        <v>219.8942334459614</v>
       </c>
       <c r="K41" t="n">
-        <v>432.726018261255</v>
+        <v>432.7260182612553</v>
       </c>
       <c r="L41" t="n">
-        <v>702.759203500324</v>
+        <v>702.7592035003241</v>
       </c>
       <c r="M41" t="n">
         <v>1008.369435488011</v>
@@ -7429,34 +7429,34 @@
         <v>1611.46407344158</v>
       </c>
       <c r="P41" t="n">
-        <v>1854.893307191723</v>
+        <v>1854.893307191724</v>
       </c>
       <c r="Q41" t="n">
-        <v>2029.870452556934</v>
+        <v>2029.870452556935</v>
       </c>
       <c r="R41" t="n">
         <v>2117.774347936349</v>
       </c>
       <c r="S41" t="n">
-        <v>2058.77989084907</v>
+        <v>2058.779890849071</v>
       </c>
       <c r="T41" t="n">
-        <v>2058.77989084907</v>
+        <v>2058.779890849071</v>
       </c>
       <c r="U41" t="n">
-        <v>2058.77989084907</v>
+        <v>2058.779890849071</v>
       </c>
       <c r="V41" t="n">
-        <v>2058.77989084907</v>
+        <v>2058.779890849071</v>
       </c>
       <c r="W41" t="n">
-        <v>1662.388541149417</v>
+        <v>2058.779890849071</v>
       </c>
       <c r="X41" t="n">
-        <v>1662.388541149417</v>
+        <v>2058.779890849071</v>
       </c>
       <c r="Y41" t="n">
-        <v>1257.051271104307</v>
+        <v>2058.779890849071</v>
       </c>
     </row>
     <row r="42">
@@ -7481,28 +7481,28 @@
         <v>178.4309895825817</v>
       </c>
       <c r="G42" t="n">
-        <v>85.44256538304197</v>
+        <v>85.44256538304198</v>
       </c>
       <c r="H42" t="n">
-        <v>42.35548695872698</v>
+        <v>42.35548695872699</v>
       </c>
       <c r="I42" t="n">
         <v>85.75193366084119</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9959396896564</v>
+        <v>311.6137163632574</v>
       </c>
       <c r="K42" t="n">
-        <v>310.427567532622</v>
+        <v>458.045344206223</v>
       </c>
       <c r="L42" t="n">
-        <v>514.8503748904669</v>
+        <v>662.4681515640681</v>
       </c>
       <c r="M42" t="n">
-        <v>756.5476401541528</v>
+        <v>904.1654168277539</v>
       </c>
       <c r="N42" t="n">
-        <v>1006.983317635518</v>
+        <v>1154.60109430912</v>
       </c>
       <c r="O42" t="n">
         <v>1380.090095903834</v>
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>622.0021120021015</v>
+        <v>685.3619357580773</v>
       </c>
       <c r="C43" t="n">
-        <v>450.0295488810175</v>
+        <v>513.3893726369932</v>
       </c>
       <c r="D43" t="n">
-        <v>450.0295488810175</v>
+        <v>350.0725997637639</v>
       </c>
       <c r="E43" t="n">
-        <v>450.0295488810175</v>
+        <v>350.0725997637639</v>
       </c>
       <c r="F43" t="n">
-        <v>278.1677746555779</v>
+        <v>178.2108255383244</v>
       </c>
       <c r="G43" t="n">
-        <v>112.803956575932</v>
+        <v>178.2108255383244</v>
       </c>
       <c r="H43" t="n">
-        <v>112.803956575932</v>
+        <v>42.35548695872699</v>
       </c>
       <c r="I43" t="n">
-        <v>42.35548695872698</v>
+        <v>42.35548695872699</v>
       </c>
       <c r="J43" t="n">
-        <v>161.7360333323696</v>
+        <v>83.81431668414874</v>
       </c>
       <c r="K43" t="n">
-        <v>489.966631574392</v>
+        <v>164.7623058121492</v>
       </c>
       <c r="L43" t="n">
-        <v>781.9801378904748</v>
+        <v>470.3745926965983</v>
       </c>
       <c r="M43" t="n">
-        <v>1306.129289004721</v>
+        <v>994.5237438108447</v>
       </c>
       <c r="N43" t="n">
-        <v>1419.544571022453</v>
+        <v>1505.971948670457</v>
       </c>
       <c r="O43" t="n">
-        <v>1521.00106381205</v>
+        <v>1985.130765763257</v>
       </c>
       <c r="P43" t="n">
-        <v>1917.473254808239</v>
+        <v>2068.846752186139</v>
       </c>
       <c r="Q43" t="n">
         <v>2117.774347936349</v>
@@ -7596,25 +7596,25 @@
         <v>2117.774347936349</v>
       </c>
       <c r="S43" t="n">
-        <v>2117.774347936349</v>
+        <v>1963.204497430719</v>
       </c>
       <c r="T43" t="n">
-        <v>2117.774347936349</v>
+        <v>1963.204497430719</v>
       </c>
       <c r="U43" t="n">
-        <v>1837.638616798078</v>
+        <v>1683.068766292448</v>
       </c>
       <c r="V43" t="n">
-        <v>1555.927149406107</v>
+        <v>1401.357298900477</v>
       </c>
       <c r="W43" t="n">
-        <v>1281.07474557862</v>
+        <v>1126.50489507299</v>
       </c>
       <c r="X43" t="n">
-        <v>1038.510849024425</v>
+        <v>883.9409985187953</v>
       </c>
       <c r="Y43" t="n">
-        <v>812.1680807141672</v>
+        <v>685.3619357580773</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1309.662999404443</v>
+        <v>1638.931526557541</v>
       </c>
       <c r="C44" t="n">
-        <v>1309.662999404443</v>
+        <v>1212.030796570841</v>
       </c>
       <c r="D44" t="n">
-        <v>1295.804542692379</v>
+        <v>788.7381757558412</v>
       </c>
       <c r="E44" t="n">
-        <v>869.8276028402366</v>
+        <v>362.7612359036988</v>
       </c>
       <c r="F44" t="n">
-        <v>444.7034210296368</v>
+        <v>42.35548695872699</v>
       </c>
       <c r="G44" t="n">
-        <v>42.35548695872698</v>
+        <v>42.35548695872699</v>
       </c>
       <c r="H44" t="n">
-        <v>42.35548695872698</v>
+        <v>42.35548695872699</v>
       </c>
       <c r="I44" t="n">
-        <v>83.38845554548369</v>
+        <v>83.38845554548374</v>
       </c>
       <c r="J44" t="n">
-        <v>219.8942334459613</v>
+        <v>219.8942334459614</v>
       </c>
       <c r="K44" t="n">
-        <v>432.7260182612551</v>
+        <v>432.7260182612553</v>
       </c>
       <c r="L44" t="n">
-        <v>702.759203500324</v>
+        <v>702.7592035003242</v>
       </c>
       <c r="M44" t="n">
         <v>1008.369435488011</v>
@@ -7669,31 +7669,31 @@
         <v>1854.893307191724</v>
       </c>
       <c r="Q44" t="n">
-        <v>2029.870452556934</v>
+        <v>2029.870452556935</v>
       </c>
       <c r="R44" t="n">
         <v>2117.774347936349</v>
       </c>
       <c r="S44" t="n">
-        <v>2117.774347936349</v>
+        <v>2058.779890849071</v>
       </c>
       <c r="T44" t="n">
-        <v>2117.774347936349</v>
+        <v>2058.779890849071</v>
       </c>
       <c r="U44" t="n">
-        <v>2117.774347936349</v>
+        <v>2058.779890849071</v>
       </c>
       <c r="V44" t="n">
-        <v>2117.774347936349</v>
+        <v>2058.779890849071</v>
       </c>
       <c r="W44" t="n">
-        <v>1721.382998236696</v>
+        <v>2058.779890849071</v>
       </c>
       <c r="X44" t="n">
-        <v>1309.662999404443</v>
+        <v>2058.779890849071</v>
       </c>
       <c r="Y44" t="n">
-        <v>1309.662999404443</v>
+        <v>2058.779890849071</v>
       </c>
     </row>
     <row r="45">
@@ -7718,22 +7718,22 @@
         <v>178.4309895825817</v>
       </c>
       <c r="G45" t="n">
-        <v>85.44256538304197</v>
+        <v>85.44256538304198</v>
       </c>
       <c r="H45" t="n">
-        <v>42.35548695872698</v>
+        <v>42.35548695872699</v>
       </c>
       <c r="I45" t="n">
         <v>85.75193366084119</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9959396896564</v>
+        <v>311.6137163632574</v>
       </c>
       <c r="K45" t="n">
-        <v>310.427567532622</v>
+        <v>458.045344206223</v>
       </c>
       <c r="L45" t="n">
-        <v>514.8503748904669</v>
+        <v>662.4681515640681</v>
       </c>
       <c r="M45" t="n">
         <v>904.1654168277539</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.526249805805</v>
+        <v>588.456269733219</v>
       </c>
       <c r="C46" t="n">
-        <v>754.553686684721</v>
+        <v>416.4837066121349</v>
       </c>
       <c r="D46" t="n">
-        <v>754.553686684721</v>
+        <v>416.4837066121349</v>
       </c>
       <c r="E46" t="n">
-        <v>588.3454808375745</v>
+        <v>416.4837066121349</v>
       </c>
       <c r="F46" t="n">
         <v>416.4837066121349</v>
@@ -7803,55 +7803,55 @@
         <v>115.2645499528917</v>
       </c>
       <c r="I46" t="n">
-        <v>42.35548695872698</v>
+        <v>42.35548695872699</v>
       </c>
       <c r="J46" t="n">
-        <v>83.81431668414871</v>
+        <v>161.7360333323696</v>
       </c>
       <c r="K46" t="n">
-        <v>412.0449149261711</v>
+        <v>489.9666315743921</v>
       </c>
       <c r="L46" t="n">
-        <v>717.034018160579</v>
+        <v>974.8007739587796</v>
       </c>
       <c r="M46" t="n">
-        <v>1241.183169274825</v>
+        <v>1089.670554655171</v>
       </c>
       <c r="N46" t="n">
-        <v>1354.598451292557</v>
+        <v>1203.085836672903</v>
       </c>
       <c r="O46" t="n">
-        <v>1833.757268385357</v>
+        <v>1521.00106381205</v>
       </c>
       <c r="P46" t="n">
-        <v>1917.473254808239</v>
+        <v>1917.47325480824</v>
       </c>
       <c r="Q46" t="n">
         <v>2117.774347936349</v>
       </c>
       <c r="R46" t="n">
-        <v>2110.895079558062</v>
+        <v>2117.774347936349</v>
       </c>
       <c r="S46" t="n">
-        <v>1956.325229052431</v>
+        <v>1963.204497430719</v>
       </c>
       <c r="T46" t="n">
-        <v>1716.802074589944</v>
+        <v>1723.681342968231</v>
       </c>
       <c r="U46" t="n">
-        <v>1716.802074589944</v>
+        <v>1443.54561182996</v>
       </c>
       <c r="V46" t="n">
-        <v>1585.598883382323</v>
+        <v>1161.834144437989</v>
       </c>
       <c r="W46" t="n">
-        <v>1585.598883382323</v>
+        <v>886.9817406105021</v>
       </c>
       <c r="X46" t="n">
-        <v>1343.034986828129</v>
+        <v>644.4178440563072</v>
       </c>
       <c r="Y46" t="n">
-        <v>1116.692218517871</v>
+        <v>588.456269733219</v>
       </c>
     </row>
   </sheetData>
@@ -8771,13 +8771,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>172.8031136545587</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>279.3238210130496</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>413.4135054725805</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>352.7583661930532</v>
+        <v>217.3184885227386</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>279.3238210130494</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>149.1088653268702</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
         <v>249.7804132464869</v>
@@ -9093,13 +9093,13 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>297.3539909068392</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>218.6451862116662</v>
       </c>
       <c r="P16" t="n">
         <v>315.9153581548562</v>
@@ -9242,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>279.3238210130497</v>
+        <v>279.32382101305</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>296.6567716522966</v>
+        <v>413.4135054725804</v>
       </c>
       <c r="N19" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>121.1470388939419</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>279.3238210130497</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>149.1088653268704</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,25 +9561,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>153.6725235047426</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>381.5174992961649</v>
+        <v>218.6451862116658</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>269.5919016242477</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>216.9464777629933</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>149.1088653268702</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>172.8031136545584</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>106.5207073584907</v>
@@ -9801,7 +9801,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
-        <v>163.9614043470201</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
         <v>417.7126065281028</v>
@@ -9813,10 +9813,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>315.9153581548562</v>
+        <v>252.5884834985777</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>380.7719966268714</v>
+        <v>380.7719966268719</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>279.3238210130492</v>
+        <v>279.3238210130497</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -10032,16 +10032,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K28" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L28" t="n">
-        <v>353.8503040448172</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
-        <v>417.7126065281028</v>
+        <v>312.6633042705097</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>380.7719966268714</v>
+        <v>380.7719966268724</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>279.3238210130497</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>279.3238210130492</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
         <v>249.7804132464869</v>
@@ -10290,7 +10290,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>126.5620250415183</v>
+        <v>47.85322034634578</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10363,13 +10363,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>456.3426648871779</v>
+        <v>226.9955741240935</v>
       </c>
       <c r="P32" t="n">
-        <v>267.4699873810923</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10427,7 +10427,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>149.1088653268697</v>
+        <v>149.10886532687</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10527,7 +10527,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>47.85322034634531</v>
+        <v>47.85322034634578</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>255.6295726853604</v>
+        <v>279.3238210130492</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10743,25 +10743,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>413.4135054725805</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>231.75184976553</v>
+        <v>99.28438308513931</v>
       </c>
       <c r="Q37" t="n">
         <v>152.9025226039384</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>149.1088653268701</v>
+        <v>279.3238210130492</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>165.6169048571612</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
         <v>380.1908016072373</v>
@@ -10992,13 +10992,13 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9153581548562</v>
+        <v>132.5070869504823</v>
       </c>
       <c r="Q40" t="n">
         <v>152.9025226039384</v>
@@ -11138,7 +11138,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>149.1088653268697</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11153,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>149.1088653268699</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>185.4224823463235</v>
+        <v>199.1586243345723</v>
       </c>
       <c r="M43" t="n">
-        <v>413.4135054725805</v>
+        <v>413.4135054725806</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>149.1088653268697</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11384,7 +11384,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>149.1088653268699</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11454,25 +11454,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>198.5291459001872</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>413.4135054725805</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>381.5174992961649</v>
+        <v>218.6451862116668</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
         <v>152.9025226039384</v>
@@ -23260,22 +23260,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>415.8212469923283</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>412.2492189123452</v>
       </c>
       <c r="E11" t="n">
-        <v>414.9066947591165</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>222.9084130884603</v>
+        <v>414.0624642979892</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>371.6823981729856</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.8914923689308</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>99.53210584726826</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,10 +23424,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>45.21698512642178</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>163.3326807886807</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>146.2136763060693</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>270.5238981323836</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>272.0838770235468</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>233.3277818941484</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23500,19 +23500,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>412.2492189123452</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>414.9066947591165</v>
       </c>
       <c r="F14" t="n">
-        <v>287.496857614668</v>
+        <v>34.32803945629803</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>391.5139790356962</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.8914923689308</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>51.5940368219011</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.2768368875957</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>248.8031872505477</v>
       </c>
       <c r="V14" t="n">
         <v>347.1040450305085</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>394.473421650154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>181.4538333304405</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>163.4423617953686</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>134.177368921677</v>
+        <v>145.5030984845399</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>157.7356480941704</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>163.3326807886806</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>156.8997042043449</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>127.6863094992969</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>272.0838770235468</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>408.8394049541102</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>415.8212469923283</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>412.2492189123452</v>
+        <v>48.69402276025431</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>414.9066947591165</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>391.5139790356962</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.8914923689308</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>51.59403682190111</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>203.2768368875957</v>
       </c>
       <c r="U17" t="n">
-        <v>76.986566994589</v>
+        <v>248.8031872505477</v>
       </c>
       <c r="V17" t="n">
         <v>347.1040450305085</v>
@@ -23797,10 +23797,10 @@
         <v>385.616960508152</v>
       </c>
       <c r="X17" t="n">
-        <v>400.7923231494257</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>394.473421650154</v>
       </c>
     </row>
     <row r="18">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>154.8731294499925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>157.7356480941704</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>163.3326807886806</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>156.8997042043449</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>52.94678186412585</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>65.3694966697185</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>245.7457821533376</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>272.0838770235468</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>233.3277818941484</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>408.8394049541102</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>415.8212469923283</v>
       </c>
       <c r="D20" t="n">
-        <v>325.0617290241092</v>
+        <v>412.2492189123452</v>
       </c>
       <c r="E20" t="n">
         <v>414.9066947591165</v>
       </c>
       <c r="F20" t="n">
-        <v>414.0624642979892</v>
+        <v>6.610957541431389</v>
       </c>
       <c r="G20" t="n">
-        <v>391.5139790356962</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.8914923689308</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,19 +24022,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.2768368875957</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>248.8031872505477</v>
       </c>
       <c r="V20" t="n">
         <v>347.1040450305085</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>385.616960508152</v>
       </c>
       <c r="X20" t="n">
-        <v>400.7923231494257</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.8731294499925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>157.7356480941705</v>
+        <v>157.7356480941704</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>163.3326807886806</v>
       </c>
       <c r="G22" t="n">
         <v>156.8997042043449</v>
       </c>
       <c r="H22" t="n">
-        <v>127.6863094992969</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>65.3694966697185</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>88.59315315350909</v>
+        <v>146.2136763060693</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>126.9757316777681</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>408.8394049541102</v>
       </c>
       <c r="C23" t="n">
-        <v>415.8212469923283</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>412.2492189123452</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>42.56512704449437</v>
+        <v>414.9066947591165</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>51.59403682190109</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>248.8031872505477</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>347.1040450305085</v>
       </c>
       <c r="W23" t="n">
-        <v>385.616960508152</v>
+        <v>379.4807312867618</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>400.7923231494257</v>
       </c>
       <c r="Y23" t="n">
-        <v>394.473421650154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24445,10 +24445,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.3244547302007</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>274.7019680634353</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24502,16 +24502,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>85.69328286854471</v>
+        <v>308.0465554875082</v>
       </c>
     </row>
     <row r="27">
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.3244547302007</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>274.7019680634353</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>58.40451251640562</v>
       </c>
       <c r="T29" t="n">
-        <v>91.98059152072535</v>
+        <v>210.0873125821002</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6136629450522</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>179.0502219054987</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>35.10746662404159</v>
+        <v>277.5279880077489</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.3244547302007</v>
       </c>
       <c r="H32" t="n">
-        <v>274.7019680634353</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,16 +24970,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>210.0873125821002</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6136629450522</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>68.82163705063192</v>
       </c>
       <c r="H35" t="n">
         <v>274.7019680634353</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.40451251640561</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.0873125821002</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6136629450522</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>382.3652082679571</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>163.7101798988494</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>50.65461093873812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>6.810475694504511</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>153.0241520005739</v>
       </c>
       <c r="T37" t="n">
-        <v>237.127922917863</v>
+        <v>65.92966978903274</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -25402,7 +25402,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>398.3244547302007</v>
@@ -25453,7 +25453,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>41.5767931809138</v>
+        <v>43.33557587525257</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>117.9071954768966</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>6.810475694504511</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>24.98197015444822</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3343738268882</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>327.7356570072689</v>
+        <v>103.6712485369718</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>398.3244547302007</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>274.7019680634353</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25690,13 +25690,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.7101798988494</v>
       </c>
       <c r="H43" t="n">
-        <v>134.4967851938014</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>2.435987443190044</v>
+        <v>72.179972364223</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.810475694504518</v>
+        <v>6.810475694504511</v>
       </c>
       <c r="S43" t="n">
-        <v>153.0241520005739</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.127922917863</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>27.48606849404459</v>
       </c>
     </row>
     <row r="44">
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>405.3398224619063</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>103.6712485369717</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.3244547302007</v>
       </c>
       <c r="H44" t="n">
         <v>274.7019680634353</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.40451251640562</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>210.0873125821002</v>
@@ -25927,10 +25927,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,10 +26031,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>6.810475694504511</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3343738268882</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>149.0031934225074</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>168.677382047298</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>295660.7668557286</v>
+        <v>295660.7668557285</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>295660.7668557286</v>
+        <v>295660.7668557285</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>295660.7668557287</v>
+        <v>295660.7668557285</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>399641.1814665267</v>
+        <v>399641.1814665268</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>287752.0338507284</v>
+        <v>287752.0338507283</v>
       </c>
     </row>
     <row r="15">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>559413.281127317</v>
+      </c>
+      <c r="C2" t="n">
         <v>559413.2811273169</v>
       </c>
-      <c r="C2" t="n">
-        <v>559413.281127317</v>
-      </c>
       <c r="D2" t="n">
-        <v>559413.2811273169</v>
+        <v>559413.2811273168</v>
       </c>
       <c r="E2" t="n">
-        <v>340580.5166999452</v>
+        <v>340580.5166999453</v>
       </c>
       <c r="F2" t="n">
-        <v>340580.5166999452</v>
+        <v>340580.5166999453</v>
       </c>
       <c r="G2" t="n">
         <v>340580.5166999452</v>
       </c>
       <c r="H2" t="n">
-        <v>340580.5166999453</v>
+        <v>340580.5166999452</v>
       </c>
       <c r="I2" t="n">
-        <v>416454.9298225301</v>
+        <v>416454.9298225302</v>
       </c>
       <c r="J2" t="n">
         <v>417512.0518598313</v>
       </c>
       <c r="K2" t="n">
+        <v>417512.0518598313</v>
+      </c>
+      <c r="L2" t="n">
         <v>417512.051859831</v>
-      </c>
-      <c r="L2" t="n">
-        <v>417512.0518598314</v>
       </c>
       <c r="M2" t="n">
         <v>330630.8203388159</v>
@@ -26355,7 +26355,7 @@
         <v>330630.8203388157</v>
       </c>
       <c r="P2" t="n">
-        <v>330630.8203388159</v>
+        <v>330630.8203388157</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>557469.4099089622</v>
+        <v>557469.4099089621</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>51470.96935865032</v>
+        <v>51470.96935865039</v>
       </c>
       <c r="J3" t="n">
-        <v>7346.609369667862</v>
+        <v>7346.609369667832</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>76706.87783666213</v>
+        <v>76706.87783666207</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>326666.1812112284</v>
       </c>
       <c r="E4" t="n">
-        <v>31207.18497625487</v>
+        <v>31207.18497625488</v>
       </c>
       <c r="F4" t="n">
-        <v>31207.18497625487</v>
+        <v>31207.18497625488</v>
       </c>
       <c r="G4" t="n">
         <v>31207.18497625489</v>
@@ -26438,22 +26438,22 @@
         <v>31207.18497625488</v>
       </c>
       <c r="I4" t="n">
-        <v>74996.26859891573</v>
+        <v>74996.26859891575</v>
       </c>
       <c r="J4" t="n">
-        <v>75524.01436833045</v>
+        <v>75524.01436833048</v>
       </c>
       <c r="K4" t="n">
-        <v>75524.01436833045</v>
+        <v>75524.01436833051</v>
       </c>
       <c r="L4" t="n">
-        <v>75524.01436833048</v>
+        <v>75524.01436833051</v>
       </c>
       <c r="M4" t="n">
-        <v>25382.61154565668</v>
+        <v>25382.61154565669</v>
       </c>
       <c r="N4" t="n">
-        <v>25382.6115456567</v>
+        <v>25382.61154565669</v>
       </c>
       <c r="O4" t="n">
         <v>25382.61154565669</v>
@@ -26478,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>43452.13726154695</v>
+        <v>43452.13726154694</v>
       </c>
       <c r="F5" t="n">
-        <v>43452.13726154695</v>
+        <v>43452.13726154694</v>
       </c>
       <c r="G5" t="n">
-        <v>43452.13726154695</v>
+        <v>43452.13726154694</v>
       </c>
       <c r="H5" t="n">
-        <v>43452.13726154695</v>
+        <v>43452.13726154694</v>
       </c>
       <c r="I5" t="n">
         <v>55220.42535088905</v>
@@ -26502,16 +26502,16 @@
         <v>56355.0571734007</v>
       </c>
       <c r="M5" t="n">
-        <v>42879.58738038565</v>
+        <v>42879.58738038567</v>
       </c>
       <c r="N5" t="n">
-        <v>42879.58738038565</v>
+        <v>42879.58738038567</v>
       </c>
       <c r="O5" t="n">
-        <v>42879.58738038565</v>
+        <v>42879.58738038567</v>
       </c>
       <c r="P5" t="n">
-        <v>42879.58738038565</v>
+        <v>42879.58738038567</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>199119.4999160885</v>
+        <v>199097.7862745922</v>
       </c>
       <c r="C6" t="n">
-        <v>199119.4999160886</v>
+        <v>199097.7862745921</v>
       </c>
       <c r="D6" t="n">
-        <v>199119.4999160885</v>
+        <v>199097.786274592</v>
       </c>
       <c r="E6" t="n">
-        <v>-291548.2154468189</v>
+        <v>-292131.0387406928</v>
       </c>
       <c r="F6" t="n">
-        <v>265921.1944621434</v>
+        <v>265338.3711682693</v>
       </c>
       <c r="G6" t="n">
-        <v>265921.1944621434</v>
+        <v>265338.3711682691</v>
       </c>
       <c r="H6" t="n">
-        <v>265921.1944621434</v>
+        <v>265338.3711682692</v>
       </c>
       <c r="I6" t="n">
-        <v>234767.266514075</v>
+        <v>234378.9929974382</v>
       </c>
       <c r="J6" t="n">
-        <v>278286.3709484322</v>
+        <v>277900.8080011219</v>
       </c>
       <c r="K6" t="n">
-        <v>285632.9803180999</v>
+        <v>285247.4173707897</v>
       </c>
       <c r="L6" t="n">
-        <v>285632.9803181002</v>
+        <v>285247.4173707894</v>
       </c>
       <c r="M6" t="n">
-        <v>185661.7435761114</v>
+        <v>185053.4082402856</v>
       </c>
       <c r="N6" t="n">
-        <v>262368.6214127735</v>
+        <v>261760.2860769477</v>
       </c>
       <c r="O6" t="n">
-        <v>262368.6214127733</v>
+        <v>261760.2860769476</v>
       </c>
       <c r="P6" t="n">
-        <v>262368.6214127735</v>
+        <v>261760.2860769476</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="F2" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="G2" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="H2" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="I2" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26749,37 +26749,37 @@
         <v>490.3402427409702</v>
       </c>
       <c r="F3" t="n">
-        <v>490.3402427409703</v>
+        <v>490.3402427409702</v>
       </c>
       <c r="G3" t="n">
-        <v>490.3402427409702</v>
+        <v>490.3402427409701</v>
       </c>
       <c r="H3" t="n">
         <v>490.3402427409702</v>
       </c>
       <c r="I3" t="n">
-        <v>490.3402427409703</v>
+        <v>490.3402427409702</v>
       </c>
       <c r="J3" t="n">
-        <v>490.3402427409703</v>
+        <v>490.3402427409702</v>
       </c>
       <c r="K3" t="n">
-        <v>490.3402427409703</v>
+        <v>490.3402427409702</v>
       </c>
       <c r="L3" t="n">
-        <v>490.3402427409703</v>
+        <v>490.3402427409702</v>
       </c>
       <c r="M3" t="n">
         <v>490.3402427409703</v>
       </c>
       <c r="N3" t="n">
-        <v>490.3402427409702</v>
+        <v>490.3402427409703</v>
       </c>
       <c r="O3" t="n">
-        <v>490.3402427409702</v>
+        <v>490.3402427409703</v>
       </c>
       <c r="P3" t="n">
-        <v>490.3402427409702</v>
+        <v>490.3402427409703</v>
       </c>
     </row>
     <row r="4">
@@ -26798,22 +26798,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>529.4435869840872</v>
+        <v>529.4435869840871</v>
       </c>
       <c r="F4" t="n">
-        <v>529.4435869840872</v>
+        <v>529.4435869840871</v>
       </c>
       <c r="G4" t="n">
-        <v>529.4435869840872</v>
+        <v>529.4435869840871</v>
       </c>
       <c r="H4" t="n">
-        <v>529.4435869840872</v>
+        <v>529.443586984087</v>
       </c>
       <c r="I4" t="n">
         <v>723.0009568745822</v>
       </c>
       <c r="J4" t="n">
-        <v>751.0796033165716</v>
+        <v>751.0796033165715</v>
       </c>
       <c r="K4" t="n">
         <v>751.0796033165716</v>
@@ -26822,16 +26822,16 @@
         <v>751.0796033165716</v>
       </c>
       <c r="M4" t="n">
-        <v>529.4435869840872</v>
+        <v>529.4435869840873</v>
       </c>
       <c r="N4" t="n">
-        <v>529.4435869840872</v>
+        <v>529.4435869840873</v>
       </c>
       <c r="O4" t="n">
-        <v>529.4435869840872</v>
+        <v>529.4435869840873</v>
       </c>
       <c r="P4" t="n">
-        <v>529.4435869840872</v>
+        <v>529.4435869840873</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>529.4435869840872</v>
+        <v>529.4435869840871</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>193.557369890495</v>
+        <v>193.5573698904952</v>
       </c>
       <c r="J4" t="n">
-        <v>28.07864644198935</v>
+        <v>28.07864644198924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>307.8075706516032</v>
+        <v>307.807570651603</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>529.4435869840872</v>
+        <v>529.4435869840871</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="C11" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="D11" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="E11" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="F11" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="G11" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="H11" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="T11" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="U11" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="V11" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="W11" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="X11" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
     </row>
     <row r="12">
@@ -28247,28 +28247,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="C13" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="D13" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="E13" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="F13" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="G13" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="H13" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="I13" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28295,28 +28295,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="S13" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="T13" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="U13" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="V13" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="W13" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="X13" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="C14" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="D14" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="E14" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="F14" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="G14" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="H14" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="T14" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="U14" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="V14" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="W14" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="X14" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
     </row>
     <row r="15">
@@ -28484,28 +28484,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="C16" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="D16" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="E16" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="F16" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="G16" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="H16" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="I16" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28532,28 +28532,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504518</v>
       </c>
       <c r="S16" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="T16" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="U16" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="V16" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="W16" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="X16" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="C17" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="D17" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="E17" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="F17" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="G17" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="H17" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="T17" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="U17" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="V17" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="W17" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="X17" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
     </row>
     <row r="18">
@@ -28721,28 +28721,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="C19" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="D19" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="E19" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="F19" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="G19" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="H19" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="I19" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28772,25 +28772,25 @@
         <v>6.810475694504525</v>
       </c>
       <c r="S19" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="T19" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="U19" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="V19" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="W19" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="X19" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="C20" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="D20" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="E20" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="F20" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="G20" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="H20" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="T20" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="U20" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="V20" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="W20" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="X20" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
     </row>
     <row r="21">
@@ -28958,28 +28958,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="C22" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="D22" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="E22" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="F22" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="G22" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="H22" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="I22" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29006,28 +29006,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="S22" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="T22" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="U22" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="V22" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="W22" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="X22" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="C23" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="D23" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="E23" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="F23" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="G23" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="H23" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="T23" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="U23" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="V23" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="W23" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="X23" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="Y23" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
     </row>
     <row r="24">
@@ -29195,28 +29195,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="C25" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="D25" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="E25" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="F25" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="G25" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="H25" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="I25" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29243,28 +29243,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.810475694504511</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="S25" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="T25" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="U25" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="V25" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="W25" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="X25" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.810475694504516</v>
+        <v>6.810475694504525</v>
       </c>
     </row>
     <row r="26">
@@ -31992,10 +31992,10 @@
         <v>1.971217056245105</v>
       </c>
       <c r="H14" t="n">
-        <v>20.18772667727019</v>
+        <v>20.18772667727018</v>
       </c>
       <c r="I14" t="n">
-        <v>75.99534556088949</v>
+        <v>75.99534556088948</v>
       </c>
       <c r="J14" t="n">
         <v>167.3045836274831</v>
@@ -32007,16 +32007,16 @@
         <v>311.0728356033997</v>
       </c>
       <c r="M14" t="n">
-        <v>346.1284669273986</v>
+        <v>346.1284669273985</v>
       </c>
       <c r="N14" t="n">
-        <v>351.729187388455</v>
+        <v>351.7291873884549</v>
       </c>
       <c r="O14" t="n">
         <v>332.1278977854177</v>
       </c>
       <c r="P14" t="n">
-        <v>283.4634767093667</v>
+        <v>283.4634767093666</v>
       </c>
       <c r="Q14" t="n">
         <v>212.8692658825887</v>
@@ -32025,10 +32025,10 @@
         <v>123.8244634093567</v>
       </c>
       <c r="S14" t="n">
-        <v>44.91910866918538</v>
+        <v>44.91910866918537</v>
       </c>
       <c r="T14" t="n">
-        <v>8.629002663712953</v>
+        <v>8.629002663712951</v>
       </c>
       <c r="U14" t="n">
         <v>0.1576973644996084</v>
@@ -32080,7 +32080,7 @@
         <v>99.64546385738907</v>
       </c>
       <c r="K15" t="n">
-        <v>170.3099690282482</v>
+        <v>170.3099690282481</v>
       </c>
       <c r="L15" t="n">
         <v>229.002770914073</v>
@@ -32089,10 +32089,10 @@
         <v>267.2354322938288</v>
       </c>
       <c r="N15" t="n">
-        <v>274.3083590028</v>
+        <v>274.3083590027999</v>
       </c>
       <c r="O15" t="n">
-        <v>250.9385579997115</v>
+        <v>250.9385579997114</v>
       </c>
       <c r="P15" t="n">
         <v>201.4003159288336</v>
@@ -32107,10 +32107,10 @@
         <v>19.59048045290573</v>
       </c>
       <c r="T15" t="n">
-        <v>4.251157387537279</v>
+        <v>4.251157387537278</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06938777019919394</v>
+        <v>0.06938777019919393</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8842201098607659</v>
+        <v>0.8842201098607658</v>
       </c>
       <c r="H16" t="n">
-        <v>7.861520613125725</v>
+        <v>7.861520613125724</v>
       </c>
       <c r="I16" t="n">
         <v>26.59091021290377</v>
@@ -32171,10 +32171,10 @@
         <v>135.3097919026026</v>
       </c>
       <c r="O16" t="n">
-        <v>124.9804933465018</v>
+        <v>124.9804933465017</v>
       </c>
       <c r="P16" t="n">
-        <v>106.9424031053421</v>
+        <v>106.942403105342</v>
       </c>
       <c r="Q16" t="n">
         <v>74.0413766538865</v>
@@ -32183,10 +32183,10 @@
         <v>39.75775148519406</v>
       </c>
       <c r="S16" t="n">
-        <v>15.40954500548262</v>
+        <v>15.40954500548261</v>
       </c>
       <c r="T16" t="n">
-        <v>3.778031378495999</v>
+        <v>3.778031378495998</v>
       </c>
       <c r="U16" t="n">
         <v>0.04823018781058729</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.971217056245105</v>
+        <v>1.971217056245104</v>
       </c>
       <c r="H17" t="n">
         <v>20.18772667727018</v>
       </c>
       <c r="I17" t="n">
-        <v>75.99534556088948</v>
+        <v>75.99534556088946</v>
       </c>
       <c r="J17" t="n">
         <v>167.3045836274831</v>
@@ -32244,7 +32244,7 @@
         <v>311.0728356033996</v>
       </c>
       <c r="M17" t="n">
-        <v>346.1284669273985</v>
+        <v>346.1284669273984</v>
       </c>
       <c r="N17" t="n">
         <v>351.7291873884549</v>
@@ -32262,7 +32262,7 @@
         <v>123.8244634093567</v>
       </c>
       <c r="S17" t="n">
-        <v>44.91910866918537</v>
+        <v>44.91910866918536</v>
       </c>
       <c r="T17" t="n">
         <v>8.629002663712949</v>
@@ -32308,13 +32308,13 @@
         <v>1.054694107027747</v>
       </c>
       <c r="H18" t="n">
-        <v>10.18612466524167</v>
+        <v>10.18612466524166</v>
       </c>
       <c r="I18" t="n">
-        <v>36.31293307091148</v>
+        <v>36.31293307091147</v>
       </c>
       <c r="J18" t="n">
-        <v>99.64546385738906</v>
+        <v>99.64546385738905</v>
       </c>
       <c r="K18" t="n">
         <v>170.3099690282481</v>
@@ -32344,7 +32344,7 @@
         <v>19.59048045290573</v>
       </c>
       <c r="T18" t="n">
-        <v>4.251157387537278</v>
+        <v>4.251157387537277</v>
       </c>
       <c r="U18" t="n">
         <v>0.06938777019919391</v>
@@ -32384,25 +32384,25 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8842201098607657</v>
+        <v>0.8842201098607656</v>
       </c>
       <c r="H19" t="n">
-        <v>7.861520613125723</v>
+        <v>7.861520613125722</v>
       </c>
       <c r="I19" t="n">
         <v>26.59091021290376</v>
       </c>
       <c r="J19" t="n">
-        <v>62.51436176715614</v>
+        <v>62.51436176715613</v>
       </c>
       <c r="K19" t="n">
-        <v>102.7303000365508</v>
+        <v>102.7303000365507</v>
       </c>
       <c r="L19" t="n">
         <v>131.4594152423906</v>
       </c>
       <c r="M19" t="n">
-        <v>138.6055214029926</v>
+        <v>138.6055214029925</v>
       </c>
       <c r="N19" t="n">
         <v>135.3097919026025</v>
@@ -32426,7 +32426,7 @@
         <v>3.778031378495998</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04823018781058728</v>
+        <v>0.04823018781058727</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32475,10 +32475,10 @@
         <v>167.3045836274831</v>
       </c>
       <c r="K20" t="n">
-        <v>250.7462016183385</v>
+        <v>250.7462016183384</v>
       </c>
       <c r="L20" t="n">
-        <v>311.0728356033997</v>
+        <v>311.0728356033996</v>
       </c>
       <c r="M20" t="n">
         <v>346.1284669273985</v>
@@ -32487,10 +32487,10 @@
         <v>351.7291873884549</v>
       </c>
       <c r="O20" t="n">
-        <v>332.1278977854177</v>
+        <v>332.1278977854176</v>
       </c>
       <c r="P20" t="n">
-        <v>283.4634767093666</v>
+        <v>283.4634767093665</v>
       </c>
       <c r="Q20" t="n">
         <v>212.8692658825887</v>
@@ -32502,10 +32502,10 @@
         <v>44.91910866918537</v>
       </c>
       <c r="T20" t="n">
-        <v>8.629002663712951</v>
+        <v>8.629002663712949</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1576973644996084</v>
+        <v>0.1576973644996083</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,16 +32551,16 @@
         <v>36.31293307091148</v>
       </c>
       <c r="J21" t="n">
-        <v>99.64546385738907</v>
+        <v>99.64546385738906</v>
       </c>
       <c r="K21" t="n">
         <v>170.3099690282481</v>
       </c>
       <c r="L21" t="n">
-        <v>229.002770914073</v>
+        <v>229.0027709140729</v>
       </c>
       <c r="M21" t="n">
-        <v>267.2354322938288</v>
+        <v>267.2354322938287</v>
       </c>
       <c r="N21" t="n">
         <v>274.3083590027999</v>
@@ -32575,7 +32575,7 @@
         <v>134.6307775918226</v>
       </c>
       <c r="R21" t="n">
-        <v>65.48355166265262</v>
+        <v>65.4835516626526</v>
       </c>
       <c r="S21" t="n">
         <v>19.59048045290573</v>
@@ -32584,7 +32584,7 @@
         <v>4.251157387537278</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06938777019919393</v>
+        <v>0.06938777019919391</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8842201098607658</v>
+        <v>0.8842201098607657</v>
       </c>
       <c r="H22" t="n">
-        <v>7.861520613125724</v>
+        <v>7.861520613125723</v>
       </c>
       <c r="I22" t="n">
-        <v>26.59091021290377</v>
+        <v>26.59091021290376</v>
       </c>
       <c r="J22" t="n">
-        <v>62.51436176715615</v>
+        <v>62.51436176715614</v>
       </c>
       <c r="K22" t="n">
         <v>102.7303000365508</v>
@@ -32642,7 +32642,7 @@
         <v>138.6055214029926</v>
       </c>
       <c r="N22" t="n">
-        <v>135.3097919026026</v>
+        <v>135.3097919026025</v>
       </c>
       <c r="O22" t="n">
         <v>124.9804933465017</v>
@@ -32651,7 +32651,7 @@
         <v>106.942403105342</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.0413766538865</v>
+        <v>74.04137665388649</v>
       </c>
       <c r="R22" t="n">
         <v>39.75775148519406</v>
@@ -32663,7 +32663,7 @@
         <v>3.778031378495998</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04823018781058729</v>
+        <v>0.04823018781058728</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,13 +32703,13 @@
         <v>1.971217056245105</v>
       </c>
       <c r="H23" t="n">
-        <v>20.18772667727019</v>
+        <v>20.18772667727018</v>
       </c>
       <c r="I23" t="n">
-        <v>75.9953455608895</v>
+        <v>75.99534556088948</v>
       </c>
       <c r="J23" t="n">
-        <v>167.3045836274832</v>
+        <v>167.3045836274831</v>
       </c>
       <c r="K23" t="n">
         <v>250.7462016183385</v>
@@ -32718,28 +32718,28 @@
         <v>311.0728356033997</v>
       </c>
       <c r="M23" t="n">
-        <v>346.1284669273986</v>
+        <v>346.1284669273985</v>
       </c>
       <c r="N23" t="n">
-        <v>351.729187388455</v>
+        <v>351.7291873884549</v>
       </c>
       <c r="O23" t="n">
-        <v>332.1278977854178</v>
+        <v>332.1278977854177</v>
       </c>
       <c r="P23" t="n">
-        <v>283.4634767093667</v>
+        <v>283.4634767093666</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.8692658825888</v>
+        <v>212.8692658825887</v>
       </c>
       <c r="R23" t="n">
         <v>123.8244634093567</v>
       </c>
       <c r="S23" t="n">
-        <v>44.91910866918538</v>
+        <v>44.91910866918537</v>
       </c>
       <c r="T23" t="n">
-        <v>8.629002663712953</v>
+        <v>8.629002663712951</v>
       </c>
       <c r="U23" t="n">
         <v>0.1576973644996084</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.054694107027748</v>
+        <v>1.054694107027747</v>
       </c>
       <c r="H24" t="n">
         <v>10.18612466524167</v>
@@ -32788,10 +32788,10 @@
         <v>36.31293307091148</v>
       </c>
       <c r="J24" t="n">
-        <v>99.64546385738909</v>
+        <v>99.64546385738907</v>
       </c>
       <c r="K24" t="n">
-        <v>170.3099690282482</v>
+        <v>170.3099690282481</v>
       </c>
       <c r="L24" t="n">
         <v>229.002770914073</v>
@@ -32800,28 +32800,28 @@
         <v>267.2354322938288</v>
       </c>
       <c r="N24" t="n">
-        <v>274.3083590028</v>
+        <v>274.3083590027999</v>
       </c>
       <c r="O24" t="n">
-        <v>250.9385579997115</v>
+        <v>250.9385579997114</v>
       </c>
       <c r="P24" t="n">
-        <v>201.4003159288337</v>
+        <v>201.4003159288336</v>
       </c>
       <c r="Q24" t="n">
-        <v>134.6307775918227</v>
+        <v>134.6307775918226</v>
       </c>
       <c r="R24" t="n">
-        <v>65.48355166265263</v>
+        <v>65.48355166265262</v>
       </c>
       <c r="S24" t="n">
-        <v>19.59048045290574</v>
+        <v>19.59048045290573</v>
       </c>
       <c r="T24" t="n">
-        <v>4.251157387537279</v>
+        <v>4.251157387537278</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06938777019919394</v>
+        <v>0.06938777019919393</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.884220109860766</v>
+        <v>0.8842201098607658</v>
       </c>
       <c r="H25" t="n">
-        <v>7.861520613125726</v>
+        <v>7.861520613125724</v>
       </c>
       <c r="I25" t="n">
         <v>26.59091021290377</v>
       </c>
       <c r="J25" t="n">
-        <v>62.51436176715616</v>
+        <v>62.51436176715615</v>
       </c>
       <c r="K25" t="n">
         <v>102.7303000365508</v>
@@ -32882,22 +32882,22 @@
         <v>135.3097919026026</v>
       </c>
       <c r="O25" t="n">
-        <v>124.9804933465018</v>
+        <v>124.9804933465017</v>
       </c>
       <c r="P25" t="n">
-        <v>106.9424031053421</v>
+        <v>106.942403105342</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.04137665388652</v>
+        <v>74.0413766538865</v>
       </c>
       <c r="R25" t="n">
-        <v>39.75775148519407</v>
+        <v>39.75775148519406</v>
       </c>
       <c r="S25" t="n">
-        <v>15.40954500548262</v>
+        <v>15.40954500548261</v>
       </c>
       <c r="T25" t="n">
-        <v>3.778031378495999</v>
+        <v>3.778031378495998</v>
       </c>
       <c r="U25" t="n">
         <v>0.04823018781058729</v>
@@ -32940,13 +32940,13 @@
         <v>1.971217056245105</v>
       </c>
       <c r="H26" t="n">
-        <v>20.18772667727019</v>
+        <v>20.18772667727018</v>
       </c>
       <c r="I26" t="n">
-        <v>75.9953455608895</v>
+        <v>75.99534556088948</v>
       </c>
       <c r="J26" t="n">
-        <v>167.3045836274832</v>
+        <v>167.3045836274831</v>
       </c>
       <c r="K26" t="n">
         <v>250.7462016183385</v>
@@ -32955,28 +32955,28 @@
         <v>311.0728356033997</v>
       </c>
       <c r="M26" t="n">
-        <v>346.1284669273986</v>
+        <v>346.1284669273985</v>
       </c>
       <c r="N26" t="n">
-        <v>351.729187388455</v>
+        <v>351.7291873884549</v>
       </c>
       <c r="O26" t="n">
-        <v>332.1278977854178</v>
+        <v>332.1278977854177</v>
       </c>
       <c r="P26" t="n">
-        <v>283.4634767093667</v>
+        <v>283.4634767093666</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.8692658825888</v>
+        <v>212.8692658825887</v>
       </c>
       <c r="R26" t="n">
         <v>123.8244634093567</v>
       </c>
       <c r="S26" t="n">
-        <v>44.91910866918538</v>
+        <v>44.91910866918537</v>
       </c>
       <c r="T26" t="n">
-        <v>8.629002663712953</v>
+        <v>8.629002663712951</v>
       </c>
       <c r="U26" t="n">
         <v>0.1576973644996084</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.054694107027748</v>
+        <v>1.054694107027747</v>
       </c>
       <c r="H27" t="n">
         <v>10.18612466524167</v>
@@ -33025,10 +33025,10 @@
         <v>36.31293307091148</v>
       </c>
       <c r="J27" t="n">
-        <v>99.64546385738909</v>
+        <v>99.64546385738907</v>
       </c>
       <c r="K27" t="n">
-        <v>170.3099690282482</v>
+        <v>170.3099690282481</v>
       </c>
       <c r="L27" t="n">
         <v>229.002770914073</v>
@@ -33037,28 +33037,28 @@
         <v>267.2354322938288</v>
       </c>
       <c r="N27" t="n">
-        <v>274.3083590028</v>
+        <v>274.3083590027999</v>
       </c>
       <c r="O27" t="n">
-        <v>250.9385579997115</v>
+        <v>250.9385579997114</v>
       </c>
       <c r="P27" t="n">
-        <v>201.4003159288337</v>
+        <v>201.4003159288336</v>
       </c>
       <c r="Q27" t="n">
-        <v>134.6307775918227</v>
+        <v>134.6307775918226</v>
       </c>
       <c r="R27" t="n">
-        <v>65.48355166265263</v>
+        <v>65.48355166265262</v>
       </c>
       <c r="S27" t="n">
-        <v>19.59048045290574</v>
+        <v>19.59048045290573</v>
       </c>
       <c r="T27" t="n">
-        <v>4.251157387537279</v>
+        <v>4.251157387537278</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06938777019919394</v>
+        <v>0.06938777019919393</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.884220109860766</v>
+        <v>0.8842201098607658</v>
       </c>
       <c r="H28" t="n">
-        <v>7.861520613125726</v>
+        <v>7.861520613125724</v>
       </c>
       <c r="I28" t="n">
         <v>26.59091021290377</v>
       </c>
       <c r="J28" t="n">
-        <v>62.51436176715616</v>
+        <v>62.51436176715615</v>
       </c>
       <c r="K28" t="n">
         <v>102.7303000365508</v>
@@ -33119,22 +33119,22 @@
         <v>135.3097919026026</v>
       </c>
       <c r="O28" t="n">
-        <v>124.9804933465018</v>
+        <v>124.9804933465017</v>
       </c>
       <c r="P28" t="n">
-        <v>106.9424031053421</v>
+        <v>106.942403105342</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.04137665388652</v>
+        <v>74.0413766538865</v>
       </c>
       <c r="R28" t="n">
-        <v>39.75775148519407</v>
+        <v>39.75775148519406</v>
       </c>
       <c r="S28" t="n">
-        <v>15.40954500548262</v>
+        <v>15.40954500548261</v>
       </c>
       <c r="T28" t="n">
-        <v>3.778031378495999</v>
+        <v>3.778031378495998</v>
       </c>
       <c r="U28" t="n">
         <v>0.04823018781058729</v>
@@ -33177,13 +33177,13 @@
         <v>1.971217056245105</v>
       </c>
       <c r="H29" t="n">
-        <v>20.18772667727019</v>
+        <v>20.18772667727018</v>
       </c>
       <c r="I29" t="n">
-        <v>75.9953455608895</v>
+        <v>75.99534556088948</v>
       </c>
       <c r="J29" t="n">
-        <v>167.3045836274832</v>
+        <v>167.3045836274831</v>
       </c>
       <c r="K29" t="n">
         <v>250.7462016183385</v>
@@ -33192,28 +33192,28 @@
         <v>311.0728356033997</v>
       </c>
       <c r="M29" t="n">
-        <v>346.1284669273986</v>
+        <v>346.1284669273985</v>
       </c>
       <c r="N29" t="n">
-        <v>351.729187388455</v>
+        <v>351.7291873884549</v>
       </c>
       <c r="O29" t="n">
-        <v>332.1278977854178</v>
+        <v>332.1278977854177</v>
       </c>
       <c r="P29" t="n">
-        <v>283.4634767093667</v>
+        <v>283.4634767093666</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.8692658825888</v>
+        <v>212.8692658825887</v>
       </c>
       <c r="R29" t="n">
         <v>123.8244634093567</v>
       </c>
       <c r="S29" t="n">
-        <v>44.91910866918538</v>
+        <v>44.91910866918537</v>
       </c>
       <c r="T29" t="n">
-        <v>8.629002663712953</v>
+        <v>8.629002663712951</v>
       </c>
       <c r="U29" t="n">
         <v>0.1576973644996084</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.054694107027748</v>
+        <v>1.054694107027747</v>
       </c>
       <c r="H30" t="n">
         <v>10.18612466524167</v>
@@ -33262,10 +33262,10 @@
         <v>36.31293307091148</v>
       </c>
       <c r="J30" t="n">
-        <v>99.64546385738909</v>
+        <v>99.64546385738907</v>
       </c>
       <c r="K30" t="n">
-        <v>170.3099690282482</v>
+        <v>170.3099690282481</v>
       </c>
       <c r="L30" t="n">
         <v>229.002770914073</v>
@@ -33274,28 +33274,28 @@
         <v>267.2354322938288</v>
       </c>
       <c r="N30" t="n">
-        <v>274.3083590028</v>
+        <v>274.3083590027999</v>
       </c>
       <c r="O30" t="n">
-        <v>250.9385579997115</v>
+        <v>250.9385579997114</v>
       </c>
       <c r="P30" t="n">
-        <v>201.4003159288337</v>
+        <v>201.4003159288336</v>
       </c>
       <c r="Q30" t="n">
-        <v>134.6307775918227</v>
+        <v>134.6307775918226</v>
       </c>
       <c r="R30" t="n">
-        <v>65.48355166265263</v>
+        <v>65.48355166265262</v>
       </c>
       <c r="S30" t="n">
-        <v>19.59048045290574</v>
+        <v>19.59048045290573</v>
       </c>
       <c r="T30" t="n">
-        <v>4.251157387537279</v>
+        <v>4.251157387537278</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06938777019919394</v>
+        <v>0.06938777019919393</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.884220109860766</v>
+        <v>0.8842201098607658</v>
       </c>
       <c r="H31" t="n">
-        <v>7.861520613125726</v>
+        <v>7.861520613125724</v>
       </c>
       <c r="I31" t="n">
         <v>26.59091021290377</v>
       </c>
       <c r="J31" t="n">
-        <v>62.51436176715616</v>
+        <v>62.51436176715615</v>
       </c>
       <c r="K31" t="n">
         <v>102.7303000365508</v>
@@ -33356,22 +33356,22 @@
         <v>135.3097919026026</v>
       </c>
       <c r="O31" t="n">
-        <v>124.9804933465018</v>
+        <v>124.9804933465017</v>
       </c>
       <c r="P31" t="n">
-        <v>106.9424031053421</v>
+        <v>106.942403105342</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.04137665388652</v>
+        <v>74.0413766538865</v>
       </c>
       <c r="R31" t="n">
-        <v>39.75775148519407</v>
+        <v>39.75775148519406</v>
       </c>
       <c r="S31" t="n">
-        <v>15.40954500548262</v>
+        <v>15.40954500548261</v>
       </c>
       <c r="T31" t="n">
-        <v>3.778031378495999</v>
+        <v>3.778031378495998</v>
       </c>
       <c r="U31" t="n">
         <v>0.04823018781058729</v>
@@ -33414,13 +33414,13 @@
         <v>1.971217056245105</v>
       </c>
       <c r="H32" t="n">
-        <v>20.18772667727019</v>
+        <v>20.18772667727018</v>
       </c>
       <c r="I32" t="n">
-        <v>75.9953455608895</v>
+        <v>75.99534556088948</v>
       </c>
       <c r="J32" t="n">
-        <v>167.3045836274832</v>
+        <v>167.3045836274831</v>
       </c>
       <c r="K32" t="n">
         <v>250.7462016183385</v>
@@ -33429,28 +33429,28 @@
         <v>311.0728356033997</v>
       </c>
       <c r="M32" t="n">
-        <v>346.1284669273986</v>
+        <v>346.1284669273985</v>
       </c>
       <c r="N32" t="n">
-        <v>351.729187388455</v>
+        <v>351.7291873884549</v>
       </c>
       <c r="O32" t="n">
-        <v>332.1278977854178</v>
+        <v>332.1278977854177</v>
       </c>
       <c r="P32" t="n">
-        <v>283.4634767093667</v>
+        <v>283.4634767093666</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.8692658825888</v>
+        <v>212.8692658825887</v>
       </c>
       <c r="R32" t="n">
         <v>123.8244634093567</v>
       </c>
       <c r="S32" t="n">
-        <v>44.91910866918538</v>
+        <v>44.91910866918537</v>
       </c>
       <c r="T32" t="n">
-        <v>8.629002663712953</v>
+        <v>8.629002663712951</v>
       </c>
       <c r="U32" t="n">
         <v>0.1576973644996084</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.054694107027748</v>
+        <v>1.054694107027747</v>
       </c>
       <c r="H33" t="n">
         <v>10.18612466524167</v>
@@ -33499,10 +33499,10 @@
         <v>36.31293307091148</v>
       </c>
       <c r="J33" t="n">
-        <v>99.64546385738909</v>
+        <v>99.64546385738907</v>
       </c>
       <c r="K33" t="n">
-        <v>170.3099690282482</v>
+        <v>170.3099690282481</v>
       </c>
       <c r="L33" t="n">
         <v>229.002770914073</v>
@@ -33511,28 +33511,28 @@
         <v>267.2354322938288</v>
       </c>
       <c r="N33" t="n">
-        <v>274.3083590028</v>
+        <v>274.3083590027999</v>
       </c>
       <c r="O33" t="n">
-        <v>250.9385579997115</v>
+        <v>250.9385579997114</v>
       </c>
       <c r="P33" t="n">
-        <v>201.4003159288337</v>
+        <v>201.4003159288336</v>
       </c>
       <c r="Q33" t="n">
-        <v>134.6307775918227</v>
+        <v>134.6307775918226</v>
       </c>
       <c r="R33" t="n">
-        <v>65.48355166265263</v>
+        <v>65.48355166265262</v>
       </c>
       <c r="S33" t="n">
-        <v>19.59048045290574</v>
+        <v>19.59048045290573</v>
       </c>
       <c r="T33" t="n">
-        <v>4.251157387537279</v>
+        <v>4.251157387537278</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06938777019919394</v>
+        <v>0.06938777019919393</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.884220109860766</v>
+        <v>0.8842201098607658</v>
       </c>
       <c r="H34" t="n">
-        <v>7.861520613125726</v>
+        <v>7.861520613125724</v>
       </c>
       <c r="I34" t="n">
         <v>26.59091021290377</v>
       </c>
       <c r="J34" t="n">
-        <v>62.51436176715616</v>
+        <v>62.51436176715615</v>
       </c>
       <c r="K34" t="n">
         <v>102.7303000365508</v>
@@ -33593,22 +33593,22 @@
         <v>135.3097919026026</v>
       </c>
       <c r="O34" t="n">
-        <v>124.9804933465018</v>
+        <v>124.9804933465017</v>
       </c>
       <c r="P34" t="n">
-        <v>106.9424031053421</v>
+        <v>106.942403105342</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.04137665388652</v>
+        <v>74.0413766538865</v>
       </c>
       <c r="R34" t="n">
-        <v>39.75775148519407</v>
+        <v>39.75775148519406</v>
       </c>
       <c r="S34" t="n">
-        <v>15.40954500548262</v>
+        <v>15.40954500548261</v>
       </c>
       <c r="T34" t="n">
-        <v>3.778031378495999</v>
+        <v>3.778031378495998</v>
       </c>
       <c r="U34" t="n">
         <v>0.04823018781058729</v>
@@ -33888,13 +33888,13 @@
         <v>1.971217056245105</v>
       </c>
       <c r="H38" t="n">
-        <v>20.18772667727018</v>
+        <v>20.18772667727019</v>
       </c>
       <c r="I38" t="n">
-        <v>75.99534556088948</v>
+        <v>75.9953455608895</v>
       </c>
       <c r="J38" t="n">
-        <v>167.3045836274831</v>
+        <v>167.3045836274832</v>
       </c>
       <c r="K38" t="n">
         <v>250.7462016183385</v>
@@ -33903,28 +33903,28 @@
         <v>311.0728356033997</v>
       </c>
       <c r="M38" t="n">
-        <v>346.1284669273985</v>
+        <v>346.1284669273986</v>
       </c>
       <c r="N38" t="n">
-        <v>351.7291873884549</v>
+        <v>351.729187388455</v>
       </c>
       <c r="O38" t="n">
-        <v>332.1278977854177</v>
+        <v>332.1278977854178</v>
       </c>
       <c r="P38" t="n">
-        <v>283.4634767093666</v>
+        <v>283.4634767093667</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.8692658825887</v>
+        <v>212.8692658825888</v>
       </c>
       <c r="R38" t="n">
         <v>123.8244634093567</v>
       </c>
       <c r="S38" t="n">
-        <v>44.91910866918537</v>
+        <v>44.91910866918538</v>
       </c>
       <c r="T38" t="n">
-        <v>8.629002663712951</v>
+        <v>8.629002663712953</v>
       </c>
       <c r="U38" t="n">
         <v>0.1576973644996084</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.054694107027747</v>
+        <v>1.054694107027748</v>
       </c>
       <c r="H39" t="n">
         <v>10.18612466524167</v>
@@ -33973,10 +33973,10 @@
         <v>36.31293307091148</v>
       </c>
       <c r="J39" t="n">
-        <v>99.64546385738907</v>
+        <v>99.64546385738909</v>
       </c>
       <c r="K39" t="n">
-        <v>170.3099690282481</v>
+        <v>170.3099690282482</v>
       </c>
       <c r="L39" t="n">
         <v>229.002770914073</v>
@@ -33985,28 +33985,28 @@
         <v>267.2354322938288</v>
       </c>
       <c r="N39" t="n">
-        <v>274.3083590027999</v>
+        <v>274.3083590028</v>
       </c>
       <c r="O39" t="n">
-        <v>250.9385579997114</v>
+        <v>250.9385579997115</v>
       </c>
       <c r="P39" t="n">
-        <v>201.4003159288336</v>
+        <v>201.4003159288337</v>
       </c>
       <c r="Q39" t="n">
-        <v>134.6307775918226</v>
+        <v>134.6307775918227</v>
       </c>
       <c r="R39" t="n">
-        <v>65.48355166265262</v>
+        <v>65.48355166265263</v>
       </c>
       <c r="S39" t="n">
-        <v>19.59048045290573</v>
+        <v>19.59048045290574</v>
       </c>
       <c r="T39" t="n">
-        <v>4.251157387537278</v>
+        <v>4.251157387537279</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06938777019919393</v>
+        <v>0.06938777019919394</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8842201098607658</v>
+        <v>0.884220109860766</v>
       </c>
       <c r="H40" t="n">
-        <v>7.861520613125724</v>
+        <v>7.861520613125726</v>
       </c>
       <c r="I40" t="n">
         <v>26.59091021290377</v>
       </c>
       <c r="J40" t="n">
-        <v>62.51436176715615</v>
+        <v>62.51436176715616</v>
       </c>
       <c r="K40" t="n">
         <v>102.7303000365508</v>
@@ -34067,22 +34067,22 @@
         <v>135.3097919026026</v>
       </c>
       <c r="O40" t="n">
-        <v>124.9804933465017</v>
+        <v>124.9804933465018</v>
       </c>
       <c r="P40" t="n">
-        <v>106.942403105342</v>
+        <v>106.9424031053421</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.0413766538865</v>
+        <v>74.04137665388652</v>
       </c>
       <c r="R40" t="n">
-        <v>39.75775148519406</v>
+        <v>39.75775148519407</v>
       </c>
       <c r="S40" t="n">
-        <v>15.40954500548261</v>
+        <v>15.40954500548262</v>
       </c>
       <c r="T40" t="n">
-        <v>3.778031378495998</v>
+        <v>3.778031378495999</v>
       </c>
       <c r="U40" t="n">
         <v>0.04823018781058729</v>
@@ -34125,13 +34125,13 @@
         <v>1.971217056245105</v>
       </c>
       <c r="H41" t="n">
-        <v>20.18772667727018</v>
+        <v>20.18772667727019</v>
       </c>
       <c r="I41" t="n">
-        <v>75.99534556088948</v>
+        <v>75.9953455608895</v>
       </c>
       <c r="J41" t="n">
-        <v>167.3045836274831</v>
+        <v>167.3045836274832</v>
       </c>
       <c r="K41" t="n">
         <v>250.7462016183385</v>
@@ -34140,28 +34140,28 @@
         <v>311.0728356033997</v>
       </c>
       <c r="M41" t="n">
-        <v>346.1284669273985</v>
+        <v>346.1284669273986</v>
       </c>
       <c r="N41" t="n">
-        <v>351.7291873884549</v>
+        <v>351.729187388455</v>
       </c>
       <c r="O41" t="n">
-        <v>332.1278977854177</v>
+        <v>332.1278977854178</v>
       </c>
       <c r="P41" t="n">
-        <v>283.4634767093666</v>
+        <v>283.4634767093667</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.8692658825887</v>
+        <v>212.8692658825888</v>
       </c>
       <c r="R41" t="n">
         <v>123.8244634093567</v>
       </c>
       <c r="S41" t="n">
-        <v>44.91910866918537</v>
+        <v>44.91910866918538</v>
       </c>
       <c r="T41" t="n">
-        <v>8.629002663712951</v>
+        <v>8.629002663712953</v>
       </c>
       <c r="U41" t="n">
         <v>0.1576973644996084</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.054694107027747</v>
+        <v>1.054694107027748</v>
       </c>
       <c r="H42" t="n">
         <v>10.18612466524167</v>
@@ -34210,10 +34210,10 @@
         <v>36.31293307091148</v>
       </c>
       <c r="J42" t="n">
-        <v>99.64546385738907</v>
+        <v>99.64546385738909</v>
       </c>
       <c r="K42" t="n">
-        <v>170.3099690282481</v>
+        <v>170.3099690282482</v>
       </c>
       <c r="L42" t="n">
         <v>229.002770914073</v>
@@ -34222,28 +34222,28 @@
         <v>267.2354322938288</v>
       </c>
       <c r="N42" t="n">
-        <v>274.3083590027999</v>
+        <v>274.3083590028</v>
       </c>
       <c r="O42" t="n">
-        <v>250.9385579997114</v>
+        <v>250.9385579997115</v>
       </c>
       <c r="P42" t="n">
-        <v>201.4003159288336</v>
+        <v>201.4003159288337</v>
       </c>
       <c r="Q42" t="n">
-        <v>134.6307775918226</v>
+        <v>134.6307775918227</v>
       </c>
       <c r="R42" t="n">
-        <v>65.48355166265262</v>
+        <v>65.48355166265263</v>
       </c>
       <c r="S42" t="n">
-        <v>19.59048045290573</v>
+        <v>19.59048045290574</v>
       </c>
       <c r="T42" t="n">
-        <v>4.251157387537278</v>
+        <v>4.251157387537279</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06938777019919393</v>
+        <v>0.06938777019919394</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8842201098607658</v>
+        <v>0.884220109860766</v>
       </c>
       <c r="H43" t="n">
-        <v>7.861520613125724</v>
+        <v>7.861520613125726</v>
       </c>
       <c r="I43" t="n">
         <v>26.59091021290377</v>
       </c>
       <c r="J43" t="n">
-        <v>62.51436176715615</v>
+        <v>62.51436176715616</v>
       </c>
       <c r="K43" t="n">
         <v>102.7303000365508</v>
@@ -34304,22 +34304,22 @@
         <v>135.3097919026026</v>
       </c>
       <c r="O43" t="n">
-        <v>124.9804933465017</v>
+        <v>124.9804933465018</v>
       </c>
       <c r="P43" t="n">
-        <v>106.942403105342</v>
+        <v>106.9424031053421</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.0413766538865</v>
+        <v>74.04137665388652</v>
       </c>
       <c r="R43" t="n">
-        <v>39.75775148519406</v>
+        <v>39.75775148519407</v>
       </c>
       <c r="S43" t="n">
-        <v>15.40954500548261</v>
+        <v>15.40954500548262</v>
       </c>
       <c r="T43" t="n">
-        <v>3.778031378495998</v>
+        <v>3.778031378495999</v>
       </c>
       <c r="U43" t="n">
         <v>0.04823018781058729</v>
@@ -34362,13 +34362,13 @@
         <v>1.971217056245105</v>
       </c>
       <c r="H44" t="n">
-        <v>20.18772667727018</v>
+        <v>20.18772667727019</v>
       </c>
       <c r="I44" t="n">
-        <v>75.99534556088948</v>
+        <v>75.9953455608895</v>
       </c>
       <c r="J44" t="n">
-        <v>167.3045836274831</v>
+        <v>167.3045836274832</v>
       </c>
       <c r="K44" t="n">
         <v>250.7462016183385</v>
@@ -34377,28 +34377,28 @@
         <v>311.0728356033997</v>
       </c>
       <c r="M44" t="n">
-        <v>346.1284669273985</v>
+        <v>346.1284669273986</v>
       </c>
       <c r="N44" t="n">
-        <v>351.7291873884549</v>
+        <v>351.729187388455</v>
       </c>
       <c r="O44" t="n">
-        <v>332.1278977854177</v>
+        <v>332.1278977854178</v>
       </c>
       <c r="P44" t="n">
-        <v>283.4634767093666</v>
+        <v>283.4634767093667</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.8692658825887</v>
+        <v>212.8692658825888</v>
       </c>
       <c r="R44" t="n">
-        <v>123.8244634093567</v>
+        <v>123.8244634093564</v>
       </c>
       <c r="S44" t="n">
-        <v>44.91910866918537</v>
+        <v>44.91910866918538</v>
       </c>
       <c r="T44" t="n">
-        <v>8.629002663712951</v>
+        <v>8.629002663712953</v>
       </c>
       <c r="U44" t="n">
         <v>0.1576973644996084</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.054694107027747</v>
+        <v>1.054694107027748</v>
       </c>
       <c r="H45" t="n">
         <v>10.18612466524167</v>
@@ -34447,10 +34447,10 @@
         <v>36.31293307091148</v>
       </c>
       <c r="J45" t="n">
-        <v>99.64546385738907</v>
+        <v>99.64546385738909</v>
       </c>
       <c r="K45" t="n">
-        <v>170.3099690282481</v>
+        <v>170.3099690282482</v>
       </c>
       <c r="L45" t="n">
         <v>229.002770914073</v>
@@ -34459,28 +34459,28 @@
         <v>267.2354322938288</v>
       </c>
       <c r="N45" t="n">
-        <v>274.3083590027999</v>
+        <v>274.3083590028</v>
       </c>
       <c r="O45" t="n">
-        <v>250.9385579997114</v>
+        <v>250.9385579997115</v>
       </c>
       <c r="P45" t="n">
-        <v>201.4003159288336</v>
+        <v>201.4003159288337</v>
       </c>
       <c r="Q45" t="n">
-        <v>134.6307775918226</v>
+        <v>134.6307775918227</v>
       </c>
       <c r="R45" t="n">
-        <v>65.48355166265262</v>
+        <v>65.48355166265263</v>
       </c>
       <c r="S45" t="n">
-        <v>19.59048045290573</v>
+        <v>19.59048045290574</v>
       </c>
       <c r="T45" t="n">
-        <v>4.251157387537278</v>
+        <v>4.251157387537279</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06938777019919393</v>
+        <v>0.06938777019919394</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8842201098607658</v>
+        <v>0.884220109860766</v>
       </c>
       <c r="H46" t="n">
-        <v>7.861520613125724</v>
+        <v>7.861520613125726</v>
       </c>
       <c r="I46" t="n">
         <v>26.59091021290377</v>
       </c>
       <c r="J46" t="n">
-        <v>62.51436176715615</v>
+        <v>62.51436176715616</v>
       </c>
       <c r="K46" t="n">
         <v>102.7303000365508</v>
@@ -34541,22 +34541,22 @@
         <v>135.3097919026026</v>
       </c>
       <c r="O46" t="n">
-        <v>124.9804933465017</v>
+        <v>124.9804933465018</v>
       </c>
       <c r="P46" t="n">
-        <v>106.942403105342</v>
+        <v>106.9424031053421</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.0413766538865</v>
+        <v>74.04137665388652</v>
       </c>
       <c r="R46" t="n">
-        <v>39.75775148519406</v>
+        <v>39.75775148519407</v>
       </c>
       <c r="S46" t="n">
-        <v>15.40954500548261</v>
+        <v>15.40954500548262</v>
       </c>
       <c r="T46" t="n">
-        <v>3.778031378495998</v>
+        <v>3.778031378495999</v>
       </c>
       <c r="U46" t="n">
         <v>0.04823018781058729</v>
@@ -35491,13 +35491,13 @@
         <v>79.03434952405574</v>
       </c>
       <c r="K12" t="n">
-        <v>320.7138488494735</v>
+        <v>147.9107351949148</v>
       </c>
       <c r="L12" t="n">
         <v>206.4876841998434</v>
       </c>
       <c r="M12" t="n">
-        <v>244.1386517815008</v>
+        <v>523.4624727945504</v>
       </c>
       <c r="N12" t="n">
         <v>252.9653307892583</v>
@@ -35512,7 +35512,7 @@
         <v>111.8837393028441</v>
       </c>
       <c r="R12" t="n">
-        <v>148.3313396269992</v>
+        <v>41.81063226850847</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.87760578325428</v>
+        <v>120.5864104784269</v>
       </c>
       <c r="K13" t="n">
         <v>331.5460588303257</v>
       </c>
       <c r="L13" t="n">
-        <v>489.7314569539267</v>
+        <v>109.5406553466894</v>
       </c>
       <c r="M13" t="n">
-        <v>529.4435869840872</v>
+        <v>116.0300815115068</v>
       </c>
       <c r="N13" t="n">
-        <v>467.3192571200554</v>
+        <v>331.8793794497408</v>
       </c>
       <c r="O13" t="n">
-        <v>102.4813058480773</v>
+        <v>483.9988051442422</v>
       </c>
       <c r="P13" t="n">
-        <v>84.56160244735555</v>
+        <v>400.4769606022118</v>
       </c>
       <c r="Q13" t="n">
-        <v>49.42181388910156</v>
+        <v>202.32433649304</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.44744301692599</v>
+        <v>41.44744301692597</v>
       </c>
       <c r="J14" t="n">
         <v>137.8846241418966</v>
       </c>
       <c r="K14" t="n">
-        <v>214.9816008235292</v>
+        <v>214.9816008235291</v>
       </c>
       <c r="L14" t="n">
-        <v>272.7607931707768</v>
+        <v>272.7607931707767</v>
       </c>
       <c r="M14" t="n">
         <v>308.6972040279667</v>
       </c>
       <c r="N14" t="n">
-        <v>314.449564554009</v>
+        <v>314.4495645540089</v>
       </c>
       <c r="O14" t="n">
         <v>294.7369384293936</v>
       </c>
       <c r="P14" t="n">
-        <v>245.8881148991354</v>
+        <v>245.8881148991353</v>
       </c>
       <c r="Q14" t="n">
         <v>176.7445912779907</v>
       </c>
       <c r="R14" t="n">
-        <v>88.79181351456023</v>
+        <v>88.7918135145602</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20.14054632091148</v>
+        <v>43.83479464860021</v>
       </c>
       <c r="J15" t="n">
-        <v>358.3581705371051</v>
+        <v>79.03434952405574</v>
       </c>
       <c r="K15" t="n">
         <v>147.9107351949148</v>
@@ -35743,13 +35743,13 @@
         <v>227.7666682774892</v>
       </c>
       <c r="P15" t="n">
-        <v>179.629474724005</v>
+        <v>328.7383400508751</v>
       </c>
       <c r="Q15" t="n">
         <v>111.8837393028441</v>
       </c>
       <c r="R15" t="n">
-        <v>41.81063226850847</v>
+        <v>148.3313396269992</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.87760578325428</v>
+        <v>120.5864104784269</v>
       </c>
       <c r="K16" t="n">
         <v>331.5460588303257</v>
       </c>
       <c r="L16" t="n">
-        <v>489.7314569539268</v>
+        <v>489.7314569539267</v>
       </c>
       <c r="M16" t="n">
-        <v>413.384072418346</v>
+        <v>116.0300815115068</v>
       </c>
       <c r="N16" t="n">
         <v>114.5608909270022</v>
       </c>
       <c r="O16" t="n">
-        <v>102.4813058480773</v>
+        <v>321.1264920597435</v>
       </c>
       <c r="P16" t="n">
         <v>400.4769606022118</v>
@@ -35880,19 +35880,19 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.44744301692597</v>
+        <v>41.44744301692596</v>
       </c>
       <c r="J17" t="n">
         <v>137.8846241418966</v>
       </c>
       <c r="K17" t="n">
-        <v>214.9816008235291</v>
+        <v>214.981600823529</v>
       </c>
       <c r="L17" t="n">
         <v>272.7607931707767</v>
       </c>
       <c r="M17" t="n">
-        <v>308.6972040279667</v>
+        <v>308.6972040279666</v>
       </c>
       <c r="N17" t="n">
         <v>314.4495645540089</v>
@@ -35907,7 +35907,7 @@
         <v>176.7445912779907</v>
       </c>
       <c r="R17" t="n">
-        <v>88.7918135145602</v>
+        <v>88.79181351456018</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.14054632091148</v>
+        <v>20.14054632091147</v>
       </c>
       <c r="J18" t="n">
-        <v>358.3581705371054</v>
+        <v>358.3581705371057</v>
       </c>
       <c r="K18" t="n">
-        <v>147.9107351949148</v>
+        <v>147.9107351949147</v>
       </c>
       <c r="L18" t="n">
-        <v>206.4876841998434</v>
+        <v>206.4876841998433</v>
       </c>
       <c r="M18" t="n">
         <v>244.1386517815007</v>
       </c>
       <c r="N18" t="n">
-        <v>252.9653307892583</v>
+        <v>252.9653307892582</v>
       </c>
       <c r="O18" t="n">
-        <v>227.7666682774892</v>
+        <v>227.7666682774891</v>
       </c>
       <c r="P18" t="n">
-        <v>179.629474724005</v>
+        <v>179.6294747240049</v>
       </c>
       <c r="Q18" t="n">
         <v>111.8837393028441</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>41.87760578325427</v>
+        <v>120.5864104784269</v>
       </c>
       <c r="K19" t="n">
-        <v>81.76564558383876</v>
+        <v>331.5460588303257</v>
       </c>
       <c r="L19" t="n">
-        <v>109.5406553466894</v>
+        <v>489.7314569539267</v>
       </c>
       <c r="M19" t="n">
-        <v>412.6868531638033</v>
+        <v>529.4435869840871</v>
       </c>
       <c r="N19" t="n">
-        <v>516.6143483430427</v>
+        <v>114.5608909270021</v>
       </c>
       <c r="O19" t="n">
-        <v>483.9988051442422</v>
+        <v>102.4813058480773</v>
       </c>
       <c r="P19" t="n">
-        <v>400.4769606022117</v>
+        <v>205.7086413412975</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.42181388910154</v>
+        <v>202.32433649304</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36135,10 +36135,10 @@
         <v>314.4495645540089</v>
       </c>
       <c r="O20" t="n">
-        <v>294.7369384293936</v>
+        <v>294.7369384293935</v>
       </c>
       <c r="P20" t="n">
-        <v>245.8881148991353</v>
+        <v>245.8881148991352</v>
       </c>
       <c r="Q20" t="n">
         <v>176.7445912779907</v>
@@ -36196,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.14054632091148</v>
+        <v>43.83479464860021</v>
       </c>
       <c r="J21" t="n">
-        <v>79.03434952405574</v>
+        <v>79.03434952405573</v>
       </c>
       <c r="K21" t="n">
         <v>147.9107351949148</v>
       </c>
       <c r="L21" t="n">
-        <v>485.8115052128931</v>
+        <v>206.4876841998434</v>
       </c>
       <c r="M21" t="n">
-        <v>244.1386517815008</v>
+        <v>244.1386517815007</v>
       </c>
       <c r="N21" t="n">
         <v>252.9653307892583</v>
@@ -36220,10 +36220,10 @@
         <v>179.629474724005</v>
       </c>
       <c r="Q21" t="n">
-        <v>111.8837393028441</v>
+        <v>260.9926046297145</v>
       </c>
       <c r="R21" t="n">
-        <v>41.81063226850847</v>
+        <v>148.3313396269992</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>120.5864104784269</v>
       </c>
       <c r="K22" t="n">
-        <v>81.76564558383878</v>
+        <v>331.5460588303257</v>
       </c>
       <c r="L22" t="n">
         <v>489.7314569539267</v>
       </c>
       <c r="M22" t="n">
-        <v>269.7026050162494</v>
+        <v>116.0300815115068</v>
       </c>
       <c r="N22" t="n">
-        <v>516.6143483430428</v>
+        <v>114.5608909270021</v>
       </c>
       <c r="O22" t="n">
-        <v>483.9988051442422</v>
+        <v>321.126492059743</v>
       </c>
       <c r="P22" t="n">
-        <v>84.56160244735555</v>
+        <v>400.4769606022117</v>
       </c>
       <c r="Q22" t="n">
-        <v>49.42181388910156</v>
+        <v>202.32433649304</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.447443016926</v>
+        <v>41.44744301692597</v>
       </c>
       <c r="J23" t="n">
-        <v>533.5707036445493</v>
+        <v>407.4765257661443</v>
       </c>
       <c r="K23" t="n">
-        <v>214.9816008235292</v>
+        <v>214.9816008235291</v>
       </c>
       <c r="L23" t="n">
-        <v>272.7607931707768</v>
+        <v>272.7607931707767</v>
       </c>
       <c r="M23" t="n">
-        <v>525.64368179096</v>
+        <v>308.6972040279667</v>
       </c>
       <c r="N23" t="n">
-        <v>314.449564554009</v>
+        <v>314.4495645540089</v>
       </c>
       <c r="O23" t="n">
-        <v>294.7369384293937</v>
+        <v>294.7369384293936</v>
       </c>
       <c r="P23" t="n">
-        <v>245.8881148991354</v>
+        <v>245.8881148991353</v>
       </c>
       <c r="Q23" t="n">
-        <v>176.7445912779907</v>
+        <v>673.5616694221676</v>
       </c>
       <c r="R23" t="n">
-        <v>242.5682360173391</v>
+        <v>88.7918135145602</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.14054632091148</v>
+        <v>43.83479464860021</v>
       </c>
       <c r="J24" t="n">
-        <v>79.03434952405576</v>
+        <v>228.143214850926</v>
       </c>
       <c r="K24" t="n">
         <v>147.9107351949148</v>
@@ -36451,13 +36451,13 @@
         <v>252.9653307892583</v>
       </c>
       <c r="O24" t="n">
-        <v>227.7666682774893</v>
+        <v>227.7666682774892</v>
       </c>
       <c r="P24" t="n">
         <v>179.629474724005</v>
       </c>
       <c r="Q24" t="n">
-        <v>284.6868529574026</v>
+        <v>111.8837393028441</v>
       </c>
       <c r="R24" t="n">
         <v>148.3313396269992</v>
@@ -36521,22 +36521,22 @@
         <v>331.5460588303257</v>
       </c>
       <c r="L25" t="n">
-        <v>273.5020596937096</v>
+        <v>489.7314569539267</v>
       </c>
       <c r="M25" t="n">
-        <v>533.7426880396097</v>
+        <v>533.7426880396096</v>
       </c>
       <c r="N25" t="n">
         <v>516.6143483430428</v>
       </c>
       <c r="O25" t="n">
-        <v>483.9988051442423</v>
+        <v>483.9988051442422</v>
       </c>
       <c r="P25" t="n">
-        <v>400.4769606022118</v>
+        <v>337.1500859459332</v>
       </c>
       <c r="Q25" t="n">
-        <v>202.32433649304</v>
+        <v>49.42181388910156</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.447443016926</v>
+        <v>41.44744301692597</v>
       </c>
       <c r="J26" t="n">
-        <v>518.6566207687681</v>
+        <v>518.6566207687684</v>
       </c>
       <c r="K26" t="n">
-        <v>214.9816008235292</v>
+        <v>214.9816008235291</v>
       </c>
       <c r="L26" t="n">
-        <v>272.7607931707768</v>
+        <v>272.7607931707767</v>
       </c>
       <c r="M26" t="n">
-        <v>308.6972040279668</v>
+        <v>308.6972040279667</v>
       </c>
       <c r="N26" t="n">
-        <v>314.449564554009</v>
+        <v>314.4495645540089</v>
       </c>
       <c r="O26" t="n">
-        <v>294.7369384293937</v>
+        <v>294.7369384293936</v>
       </c>
       <c r="P26" t="n">
-        <v>245.8881148991354</v>
+        <v>245.8881148991353</v>
       </c>
       <c r="Q26" t="n">
         <v>673.5616694221676</v>
       </c>
       <c r="R26" t="n">
-        <v>88.79181351456023</v>
+        <v>88.7918135145602</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>20.14054632091148</v>
       </c>
       <c r="J27" t="n">
-        <v>358.358170537105</v>
+        <v>358.3581705371054</v>
       </c>
       <c r="K27" t="n">
         <v>147.9107351949148</v>
@@ -36688,16 +36688,16 @@
         <v>252.9653307892583</v>
       </c>
       <c r="O27" t="n">
-        <v>227.7666682774893</v>
+        <v>227.7666682774892</v>
       </c>
       <c r="P27" t="n">
         <v>179.629474724005</v>
       </c>
       <c r="Q27" t="n">
-        <v>111.8837393028442</v>
+        <v>111.8837393028441</v>
       </c>
       <c r="R27" t="n">
-        <v>41.81063226850848</v>
+        <v>41.81063226850847</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>41.8776057832543</v>
+        <v>120.5864104784269</v>
       </c>
       <c r="K28" t="n">
         <v>331.5460588303257</v>
       </c>
       <c r="L28" t="n">
-        <v>463.3909593915066</v>
+        <v>489.7314569539267</v>
       </c>
       <c r="M28" t="n">
-        <v>533.7426880396097</v>
+        <v>428.6933857820164</v>
       </c>
       <c r="N28" t="n">
         <v>516.6143483430428</v>
       </c>
       <c r="O28" t="n">
-        <v>483.9988051442423</v>
+        <v>483.9988051442422</v>
       </c>
       <c r="P28" t="n">
         <v>400.4769606022118</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.447443016926</v>
+        <v>41.44744301692597</v>
       </c>
       <c r="J29" t="n">
-        <v>518.6566207687681</v>
+        <v>518.6566207687689</v>
       </c>
       <c r="K29" t="n">
-        <v>214.9816008235292</v>
+        <v>214.9816008235291</v>
       </c>
       <c r="L29" t="n">
-        <v>272.7607931707768</v>
+        <v>272.7607931707767</v>
       </c>
       <c r="M29" t="n">
-        <v>308.6972040279668</v>
+        <v>308.6972040279667</v>
       </c>
       <c r="N29" t="n">
-        <v>314.449564554009</v>
+        <v>314.4495645540089</v>
       </c>
       <c r="O29" t="n">
-        <v>294.7369384293937</v>
+        <v>294.7369384293936</v>
       </c>
       <c r="P29" t="n">
-        <v>245.8881148991354</v>
+        <v>245.8881148991353</v>
       </c>
       <c r="Q29" t="n">
         <v>673.5616694221676</v>
       </c>
       <c r="R29" t="n">
-        <v>88.79181351456023</v>
+        <v>88.7918135145602</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>20.14054632091148</v>
       </c>
       <c r="J30" t="n">
-        <v>79.03434952405576</v>
+        <v>358.3581705371054</v>
       </c>
       <c r="K30" t="n">
         <v>147.9107351949148</v>
@@ -36925,16 +36925,16 @@
         <v>252.9653307892583</v>
       </c>
       <c r="O30" t="n">
-        <v>227.7666682774893</v>
+        <v>227.7666682774892</v>
       </c>
       <c r="P30" t="n">
         <v>179.629474724005</v>
       </c>
       <c r="Q30" t="n">
-        <v>391.2075603158933</v>
+        <v>111.8837393028441</v>
       </c>
       <c r="R30" t="n">
-        <v>41.81063226850848</v>
+        <v>41.81063226850847</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>41.8776057832543</v>
+        <v>120.5864104784269</v>
       </c>
       <c r="K31" t="n">
         <v>331.5460588303257</v>
       </c>
       <c r="L31" t="n">
-        <v>489.7314569539268</v>
+        <v>489.7314569539267</v>
       </c>
       <c r="M31" t="n">
-        <v>533.7426880396097</v>
+        <v>533.7426880396096</v>
       </c>
       <c r="N31" t="n">
         <v>516.6143483430428</v>
       </c>
       <c r="O31" t="n">
-        <v>483.9988051442423</v>
+        <v>483.9988051442422</v>
       </c>
       <c r="P31" t="n">
         <v>400.4769606022118</v>
       </c>
       <c r="Q31" t="n">
-        <v>175.9838389306199</v>
+        <v>97.27503423544734</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.447443016926</v>
+        <v>41.44744301692597</v>
       </c>
       <c r="J32" t="n">
         <v>137.8846241418966</v>
       </c>
       <c r="K32" t="n">
-        <v>214.9816008235292</v>
+        <v>214.9816008235291</v>
       </c>
       <c r="L32" t="n">
-        <v>272.7607931707768</v>
+        <v>272.7607931707767</v>
       </c>
       <c r="M32" t="n">
-        <v>308.6972040279668</v>
+        <v>308.6972040279667</v>
       </c>
       <c r="N32" t="n">
-        <v>314.449564554009</v>
+        <v>314.4495645540089</v>
       </c>
       <c r="O32" t="n">
-        <v>751.0796033165716</v>
+        <v>521.7325125534871</v>
       </c>
       <c r="P32" t="n">
-        <v>513.3581022802276</v>
+        <v>245.8881148991353</v>
       </c>
       <c r="Q32" t="n">
-        <v>176.7445912779907</v>
+        <v>673.5616694221676</v>
       </c>
       <c r="R32" t="n">
         <v>242.5682360173391</v>
@@ -37147,7 +37147,7 @@
         <v>43.83479464860021</v>
       </c>
       <c r="J33" t="n">
-        <v>228.1432148509255</v>
+        <v>228.1432148509257</v>
       </c>
       <c r="K33" t="n">
         <v>147.9107351949148</v>
@@ -37162,13 +37162,13 @@
         <v>252.9653307892583</v>
       </c>
       <c r="O33" t="n">
-        <v>227.7666682774893</v>
+        <v>227.7666682774892</v>
       </c>
       <c r="P33" t="n">
         <v>179.629474724005</v>
       </c>
       <c r="Q33" t="n">
-        <v>111.8837393028442</v>
+        <v>111.8837393028441</v>
       </c>
       <c r="R33" t="n">
         <v>148.3313396269992</v>
@@ -37232,22 +37232,22 @@
         <v>331.5460588303257</v>
       </c>
       <c r="L34" t="n">
-        <v>489.7314569539268</v>
+        <v>489.7314569539267</v>
       </c>
       <c r="M34" t="n">
-        <v>533.7426880396097</v>
+        <v>533.7426880396096</v>
       </c>
       <c r="N34" t="n">
         <v>516.6143483430428</v>
       </c>
       <c r="O34" t="n">
-        <v>483.9988051442423</v>
+        <v>483.9988051442422</v>
       </c>
       <c r="P34" t="n">
         <v>400.4769606022118</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.27503423544688</v>
+        <v>97.27503423544734</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>176.7445912779907</v>
       </c>
       <c r="R35" t="n">
-        <v>88.79181351456023</v>
+        <v>88.79181351455988</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>43.83479464860021</v>
+        <v>20.14054632091148</v>
       </c>
       <c r="J36" t="n">
         <v>79.03434952405576</v>
       </c>
       <c r="K36" t="n">
-        <v>403.5403078802752</v>
+        <v>427.234556207964</v>
       </c>
       <c r="L36" t="n">
         <v>206.4876841998434</v>
@@ -37463,25 +37463,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>41.8776057832543</v>
+        <v>120.5864104784269</v>
       </c>
       <c r="K37" t="n">
         <v>331.5460588303257</v>
       </c>
       <c r="L37" t="n">
-        <v>489.7314569539268</v>
+        <v>109.5406553466894</v>
       </c>
       <c r="M37" t="n">
-        <v>116.0300815115068</v>
+        <v>529.4435869840873</v>
       </c>
       <c r="N37" t="n">
-        <v>114.5608909270022</v>
+        <v>516.6143483430428</v>
       </c>
       <c r="O37" t="n">
-        <v>483.9988051442423</v>
+        <v>102.4813058480773</v>
       </c>
       <c r="P37" t="n">
-        <v>316.3134522128856</v>
+        <v>183.8459855324949</v>
       </c>
       <c r="Q37" t="n">
         <v>202.32433649304</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.44744301692597</v>
+        <v>41.447443016926</v>
       </c>
       <c r="J38" t="n">
         <v>137.8846241418966</v>
       </c>
       <c r="K38" t="n">
-        <v>214.9816008235291</v>
+        <v>214.9816008235292</v>
       </c>
       <c r="L38" t="n">
-        <v>272.7607931707767</v>
+        <v>272.7607931707768</v>
       </c>
       <c r="M38" t="n">
-        <v>308.6972040279667</v>
+        <v>308.6972040279668</v>
       </c>
       <c r="N38" t="n">
-        <v>314.4495645540089</v>
+        <v>314.449564554009</v>
       </c>
       <c r="O38" t="n">
-        <v>294.7369384293936</v>
+        <v>294.7369384293937</v>
       </c>
       <c r="P38" t="n">
-        <v>245.8881148991353</v>
+        <v>245.8881148991354</v>
       </c>
       <c r="Q38" t="n">
         <v>176.7445912779907</v>
       </c>
       <c r="R38" t="n">
-        <v>88.79181351456035</v>
+        <v>88.79181351456023</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>43.83479464860021</v>
+        <v>20.14054632091148</v>
       </c>
       <c r="J39" t="n">
-        <v>79.03434952405574</v>
+        <v>79.03434952405576</v>
       </c>
       <c r="K39" t="n">
         <v>147.9107351949148</v>
@@ -37636,16 +37636,16 @@
         <v>252.9653307892583</v>
       </c>
       <c r="O39" t="n">
-        <v>227.7666682774892</v>
+        <v>227.7666682774893</v>
       </c>
       <c r="P39" t="n">
         <v>179.629474724005</v>
       </c>
       <c r="Q39" t="n">
-        <v>260.9926046297143</v>
+        <v>391.2075603158933</v>
       </c>
       <c r="R39" t="n">
-        <v>148.3313396269992</v>
+        <v>41.81063226850848</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>41.87760578325428</v>
+        <v>120.5864104784269</v>
       </c>
       <c r="K40" t="n">
-        <v>247.382550441</v>
+        <v>331.5460588303257</v>
       </c>
       <c r="L40" t="n">
-        <v>489.7314569539267</v>
+        <v>489.7314569539268</v>
       </c>
       <c r="M40" t="n">
         <v>116.0300815115068</v>
       </c>
       <c r="N40" t="n">
-        <v>114.5608909270022</v>
+        <v>516.6143483430428</v>
       </c>
       <c r="O40" t="n">
-        <v>483.9988051442422</v>
+        <v>102.4813058480773</v>
       </c>
       <c r="P40" t="n">
-        <v>400.4769606022118</v>
+        <v>217.0686893978379</v>
       </c>
       <c r="Q40" t="n">
         <v>202.32433649304</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.44744301692597</v>
+        <v>41.447443016926</v>
       </c>
       <c r="J41" t="n">
         <v>137.8846241418966</v>
       </c>
       <c r="K41" t="n">
-        <v>214.9816008235291</v>
+        <v>214.9816008235292</v>
       </c>
       <c r="L41" t="n">
         <v>272.7607931707767</v>
       </c>
       <c r="M41" t="n">
-        <v>308.6972040279667</v>
+        <v>308.6972040279668</v>
       </c>
       <c r="N41" t="n">
-        <v>314.4495645540089</v>
+        <v>314.449564554009</v>
       </c>
       <c r="O41" t="n">
-        <v>294.7369384293936</v>
+        <v>294.7369384293937</v>
       </c>
       <c r="P41" t="n">
-        <v>245.8881148991353</v>
+        <v>245.8881148991354</v>
       </c>
       <c r="Q41" t="n">
         <v>176.7445912779907</v>
       </c>
       <c r="R41" t="n">
-        <v>88.7918135145602</v>
+        <v>88.79181351456023</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>43.83479464860021</v>
       </c>
       <c r="J42" t="n">
-        <v>79.03434952405574</v>
+        <v>228.1432148509254</v>
       </c>
       <c r="K42" t="n">
         <v>147.9107351949148</v>
@@ -37873,13 +37873,13 @@
         <v>252.9653307892583</v>
       </c>
       <c r="O42" t="n">
-        <v>376.8755336043591</v>
+        <v>227.7666682774893</v>
       </c>
       <c r="P42" t="n">
         <v>179.629474724005</v>
       </c>
       <c r="Q42" t="n">
-        <v>111.8837393028441</v>
+        <v>111.8837393028442</v>
       </c>
       <c r="R42" t="n">
         <v>148.3313396269992</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>120.5864104784269</v>
+        <v>41.8776057832543</v>
       </c>
       <c r="K43" t="n">
-        <v>331.5460588303257</v>
+        <v>81.7656455838388</v>
       </c>
       <c r="L43" t="n">
-        <v>294.9631376930129</v>
+        <v>308.6992796812617</v>
       </c>
       <c r="M43" t="n">
-        <v>529.4435869840872</v>
+        <v>529.4435869840873</v>
       </c>
       <c r="N43" t="n">
-        <v>114.5608909270022</v>
+        <v>516.6143483430428</v>
       </c>
       <c r="O43" t="n">
-        <v>102.4813058480773</v>
+        <v>483.9988051442423</v>
       </c>
       <c r="P43" t="n">
-        <v>400.4769606022118</v>
+        <v>84.56160244735558</v>
       </c>
       <c r="Q43" t="n">
-        <v>202.32433649304</v>
+        <v>49.42181388910157</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.44744301692597</v>
+        <v>41.447443016926</v>
       </c>
       <c r="J44" t="n">
         <v>137.8846241418966</v>
       </c>
       <c r="K44" t="n">
-        <v>214.9816008235291</v>
+        <v>214.9816008235292</v>
       </c>
       <c r="L44" t="n">
-        <v>272.7607931707767</v>
+        <v>272.7607931707768</v>
       </c>
       <c r="M44" t="n">
-        <v>308.6972040279667</v>
+        <v>308.6972040279668</v>
       </c>
       <c r="N44" t="n">
-        <v>314.4495645540089</v>
+        <v>314.449564554009</v>
       </c>
       <c r="O44" t="n">
-        <v>294.7369384293936</v>
+        <v>294.7369384293937</v>
       </c>
       <c r="P44" t="n">
-        <v>245.8881148991353</v>
+        <v>245.8881148991354</v>
       </c>
       <c r="Q44" t="n">
         <v>176.7445912779907</v>
       </c>
       <c r="R44" t="n">
-        <v>88.7918135145602</v>
+        <v>88.79181351455988</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>43.83479464860021</v>
       </c>
       <c r="J45" t="n">
-        <v>79.03434952405574</v>
+        <v>228.1432148509254</v>
       </c>
       <c r="K45" t="n">
         <v>147.9107351949148</v>
@@ -38104,19 +38104,19 @@
         <v>206.4876841998434</v>
       </c>
       <c r="M45" t="n">
-        <v>393.2475171083707</v>
+        <v>244.1386517815008</v>
       </c>
       <c r="N45" t="n">
         <v>252.9653307892583</v>
       </c>
       <c r="O45" t="n">
-        <v>227.7666682774892</v>
+        <v>227.7666682774893</v>
       </c>
       <c r="P45" t="n">
         <v>179.629474724005</v>
       </c>
       <c r="Q45" t="n">
-        <v>111.8837393028441</v>
+        <v>111.8837393028442</v>
       </c>
       <c r="R45" t="n">
         <v>148.3313396269992</v>
@@ -38174,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>41.87760578325428</v>
+        <v>120.5864104784269</v>
       </c>
       <c r="K46" t="n">
         <v>331.5460588303257</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0698012468766</v>
+        <v>489.7314569539268</v>
       </c>
       <c r="M46" t="n">
-        <v>529.4435869840872</v>
+        <v>116.0300815115068</v>
       </c>
       <c r="N46" t="n">
         <v>114.5608909270022</v>
       </c>
       <c r="O46" t="n">
-        <v>483.9988051442422</v>
+        <v>321.1264920597442</v>
       </c>
       <c r="P46" t="n">
-        <v>84.56160244735555</v>
+        <v>400.4769606022118</v>
       </c>
       <c r="Q46" t="n">
         <v>202.32433649304</v>
